--- a/output/reports/SE_RF_HowMth_thru2022.xlsx
+++ b/output/reports/SE_RF_HowMth_thru2022.xlsx
@@ -10,6 +10,8 @@
     <sheet name="BRF release" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="YE harvest" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="YE release" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="DSR harvest" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="DSR release" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -195,6 +197,74 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">11</xdr:col>
+      <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
+      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:row>
+      <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="9144000" cy="6400800"/>
+    <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="1" name="Picture 1"/>
+        <xdr:cNvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">        </a:blip>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+    <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:col xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">11</xdr:col>
+      <xdr:colOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:colOff>
+      <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:row>
+      <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="9144000" cy="6400800"/>
+    <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+      <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+        <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="1" name="Picture 1"/>
+        <xdr:cNvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
         </a:blip>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -212,7 +282,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:oneCellAnchor xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
     <xdr:from xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
@@ -17736,4 +17806,8754 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4312.117913334</v>
+      </c>
+      <c r="E2" t="n">
+        <v>319.935105335329</v>
+      </c>
+      <c r="F2" t="n">
+        <v>503.415173817777</v>
+      </c>
+      <c r="G2" t="n">
+        <v>175.378726474716</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4815.53308715178</v>
+      </c>
+      <c r="I2" t="n">
+        <v>364.850886425977</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5102.0570986</v>
+      </c>
+      <c r="E3" t="n">
+        <v>378.544188279255</v>
+      </c>
+      <c r="F3" t="n">
+        <v>517.92746262098</v>
+      </c>
+      <c r="G3" t="n">
+        <v>180.434487327606</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5619.98456122098</v>
+      </c>
+      <c r="I3" t="n">
+        <v>419.347477275321</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9744.929058326</v>
+      </c>
+      <c r="E4" t="n">
+        <v>723.019399613377</v>
+      </c>
+      <c r="F4" t="n">
+        <v>905.943065844398</v>
+      </c>
+      <c r="G4" t="n">
+        <v>315.610552501743</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10650.8721241704</v>
+      </c>
+      <c r="I4" t="n">
+        <v>788.902448384934</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9716.779777782</v>
+      </c>
+      <c r="E5" t="n">
+        <v>720.930879953905</v>
+      </c>
+      <c r="F5" t="n">
+        <v>810.699451921154</v>
+      </c>
+      <c r="G5" t="n">
+        <v>282.429781274625</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10527.4792297032</v>
+      </c>
+      <c r="I5" t="n">
+        <v>774.278964599933</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7739.292819566</v>
+      </c>
+      <c r="E6" t="n">
+        <v>574.212373876015</v>
+      </c>
+      <c r="F6" t="n">
+        <v>752.704045926132</v>
+      </c>
+      <c r="G6" t="n">
+        <v>262.225462903258</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8491.99686549213</v>
+      </c>
+      <c r="I6" t="n">
+        <v>631.254341535293</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7530.812210537</v>
+      </c>
+      <c r="E7" t="n">
+        <v>558.744275148052</v>
+      </c>
+      <c r="F7" t="n">
+        <v>820.858054083397</v>
+      </c>
+      <c r="G7" t="n">
+        <v>285.968813871648</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8351.6702646204</v>
+      </c>
+      <c r="I7" t="n">
+        <v>627.672946300762</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10562.137859119</v>
+      </c>
+      <c r="E8" t="n">
+        <v>783.651735977416</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1171.51795094301</v>
+      </c>
+      <c r="G8" t="n">
+        <v>408.130976109641</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11733.655810062</v>
+      </c>
+      <c r="I8" t="n">
+        <v>883.561507174586</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12683.010215106</v>
+      </c>
+      <c r="E9" t="n">
+        <v>941.008639070741</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1467.56864252836</v>
+      </c>
+      <c r="G9" t="n">
+        <v>511.268497508609</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14150.5788576344</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1070.93077990619</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13133.382570122</v>
+      </c>
+      <c r="E10" t="n">
+        <v>53.9639322824023</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2073.65332270418</v>
+      </c>
+      <c r="G10" t="n">
+        <v>701.476347606659</v>
+      </c>
+      <c r="H10" t="n">
+        <v>15207.0358928262</v>
+      </c>
+      <c r="I10" t="n">
+        <v>703.548983539141</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13767.370857504</v>
+      </c>
+      <c r="E11" t="n">
+        <v>67.0601203781323</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2078.59353187184</v>
+      </c>
+      <c r="G11" t="n">
+        <v>710.762303983648</v>
+      </c>
+      <c r="H11" t="n">
+        <v>15845.9643893758</v>
+      </c>
+      <c r="I11" t="n">
+        <v>713.918841682493</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14044.064520564</v>
+      </c>
+      <c r="E12" t="n">
+        <v>90.6166860590432</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2926.69821512196</v>
+      </c>
+      <c r="G12" t="n">
+        <v>992.33329325597</v>
+      </c>
+      <c r="H12" t="n">
+        <v>16970.762735686</v>
+      </c>
+      <c r="I12" t="n">
+        <v>996.462116036813</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9041.421531219</v>
+      </c>
+      <c r="E13" t="n">
+        <v>53.9669197316245</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1848.91664235882</v>
+      </c>
+      <c r="G13" t="n">
+        <v>629.316208681238</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10890.3381735778</v>
+      </c>
+      <c r="I13" t="n">
+        <v>631.625932759452</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D14" t="n">
+        <v>11880.664022932</v>
+      </c>
+      <c r="E14" t="n">
+        <v>77.4913062262445</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2125.8404870292</v>
+      </c>
+      <c r="G14" t="n">
+        <v>717.389268309287</v>
+      </c>
+      <c r="H14" t="n">
+        <v>14006.5045099612</v>
+      </c>
+      <c r="I14" t="n">
+        <v>721.562377640342</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10797.455575107</v>
+      </c>
+      <c r="E15" t="n">
+        <v>94.6999560450759</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3671.60687222745</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1034.16410896239</v>
+      </c>
+      <c r="H15" t="n">
+        <v>14469.0624473345</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1038.49096574834</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12889.369204905</v>
+      </c>
+      <c r="E16" t="n">
+        <v>91.6912546099954</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2133.6327830621</v>
+      </c>
+      <c r="G16" t="n">
+        <v>369.796316956103</v>
+      </c>
+      <c r="H16" t="n">
+        <v>15023.0019879671</v>
+      </c>
+      <c r="I16" t="n">
+        <v>380.994228573418</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10473.78817826</v>
+      </c>
+      <c r="E17" t="n">
+        <v>92.2441100783264</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3031.66262742854</v>
+      </c>
+      <c r="G17" t="n">
+        <v>634.578098226357</v>
+      </c>
+      <c r="H17" t="n">
+        <v>13505.4508056885</v>
+      </c>
+      <c r="I17" t="n">
+        <v>641.247486227215</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10537.618369828</v>
+      </c>
+      <c r="E18" t="n">
+        <v>126.403776024516</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3862.92609242065</v>
+      </c>
+      <c r="G18" t="n">
+        <v>958.621616505804</v>
+      </c>
+      <c r="H18" t="n">
+        <v>14400.5444622487</v>
+      </c>
+      <c r="I18" t="n">
+        <v>966.919499351139</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D19" t="n">
+        <v>14578.529910344</v>
+      </c>
+      <c r="E19" t="n">
+        <v>111.875957801015</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2820.08197542921</v>
+      </c>
+      <c r="G19" t="n">
+        <v>624.538396410457</v>
+      </c>
+      <c r="H19" t="n">
+        <v>17398.6118857732</v>
+      </c>
+      <c r="I19" t="n">
+        <v>634.479659662025</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10944.47921062</v>
+      </c>
+      <c r="E20" t="n">
+        <v>90.5599979807862</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3204.52099455398</v>
+      </c>
+      <c r="G20" t="n">
+        <v>603.451486144402</v>
+      </c>
+      <c r="H20" t="n">
+        <v>14149.000205174</v>
+      </c>
+      <c r="I20" t="n">
+        <v>610.208824390607</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9024.498447979</v>
+      </c>
+      <c r="E21" t="n">
+        <v>103.778834389648</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5828.45204990028</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1481.9759409177</v>
+      </c>
+      <c r="H21" t="n">
+        <v>14852.9504978793</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1485.6051749796</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8048.571830819</v>
+      </c>
+      <c r="E22" t="n">
+        <v>97.0810250650049</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2024.118406101</v>
+      </c>
+      <c r="G22" t="n">
+        <v>385.550528486286</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10072.69023692</v>
+      </c>
+      <c r="I22" t="n">
+        <v>397.585129807098</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D23" t="n">
+        <v>7916.08556149733</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" t="n">
+        <v>3194.48130692268</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23" t="n">
+        <v>11110.56686842</v>
+      </c>
+      <c r="I23" t="n">
+        <v>671.541169986979</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6.05882352941177</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.2454312431571</v>
+      </c>
+      <c r="F24" t="n">
+        <v>45.2398582129602</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30.8893085707091</v>
+      </c>
+      <c r="H24" t="n">
+        <v>51.298681742372</v>
+      </c>
+      <c r="I24" t="n">
+        <v>30.9144057513308</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D25" t="n">
+        <v>44.078125</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" t="n">
+        <v>53.6202829420568</v>
+      </c>
+      <c r="G25" t="n">
+        <v>29.103234133567</v>
+      </c>
+      <c r="H25" t="n">
+        <v>97.6984079420568</v>
+      </c>
+      <c r="I25" t="n">
+        <v>29.3312883539418</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D26" t="n">
+        <v>191.822580645161</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8.0069371217075</v>
+      </c>
+      <c r="F26" t="n">
+        <v>292.850593711194</v>
+      </c>
+      <c r="G26" t="n">
+        <v>97.0847618709096</v>
+      </c>
+      <c r="H26" t="n">
+        <v>484.673174356356</v>
+      </c>
+      <c r="I26" t="n">
+        <v>97.4143830735595</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D27" t="n">
+        <v>191.822580645161</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8.0069371217075</v>
+      </c>
+      <c r="F27" t="n">
+        <v>292.850593711194</v>
+      </c>
+      <c r="G27" t="n">
+        <v>97.0847618709096</v>
+      </c>
+      <c r="H27" t="n">
+        <v>484.673174356356</v>
+      </c>
+      <c r="I27" t="n">
+        <v>97.4143830735595</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D28" t="n">
+        <v>598.856152032</v>
+      </c>
+      <c r="E28" t="n">
+        <v>13.7555192342565</v>
+      </c>
+      <c r="F28" t="n">
+        <v>111.629220898796</v>
+      </c>
+      <c r="G28" t="n">
+        <v>77.9294471996655</v>
+      </c>
+      <c r="H28" t="n">
+        <v>710.485372930796</v>
+      </c>
+      <c r="I28" t="n">
+        <v>79.1341459184937</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D29" t="n">
+        <v>114.632530752</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2.63306968840553</v>
+      </c>
+      <c r="F29" t="n">
+        <v>56.7127765945608</v>
+      </c>
+      <c r="G29" t="n">
+        <v>39.5917421405197</v>
+      </c>
+      <c r="H29" t="n">
+        <v>171.345307346561</v>
+      </c>
+      <c r="I29" t="n">
+        <v>39.6792023824245</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>140.326029024</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.22324048063436</v>
+      </c>
+      <c r="F30" t="n">
+        <v>102.562019814296</v>
+      </c>
+      <c r="G30" t="n">
+        <v>71.5995457413018</v>
+      </c>
+      <c r="H30" t="n">
+        <v>242.888048838296</v>
+      </c>
+      <c r="I30" t="n">
+        <v>71.6720603133242</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>150.208143744</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.45022924687621</v>
+      </c>
+      <c r="F31" t="n">
+        <v>89.2178370861642</v>
+      </c>
+      <c r="G31" t="n">
+        <v>62.2838417082384</v>
+      </c>
+      <c r="H31" t="n">
+        <v>239.425980830164</v>
+      </c>
+      <c r="I31" t="n">
+        <v>62.3793316715793</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D32" t="n">
+        <v>100.797570144</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.31528541566693</v>
+      </c>
+      <c r="F32" t="n">
+        <v>76.3868921552681</v>
+      </c>
+      <c r="G32" t="n">
+        <v>53.3264339841389</v>
+      </c>
+      <c r="H32" t="n">
+        <v>177.184462299268</v>
+      </c>
+      <c r="I32" t="n">
+        <v>53.3766719459046</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D33" t="n">
+        <v>437.777682096</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10.0556023445142</v>
+      </c>
+      <c r="F33" t="n">
+        <v>139.172982683786</v>
+      </c>
+      <c r="G33" t="n">
+        <v>97.1580157807324</v>
+      </c>
+      <c r="H33" t="n">
+        <v>576.950664779787</v>
+      </c>
+      <c r="I33" t="n">
+        <v>97.676994061857</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D34" t="n">
+        <v>373.543936416</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8.58017536394216</v>
+      </c>
+      <c r="F34" t="n">
+        <v>128.394988941834</v>
+      </c>
+      <c r="G34" t="n">
+        <v>89.6337932924888</v>
+      </c>
+      <c r="H34" t="n">
+        <v>501.938925357834</v>
+      </c>
+      <c r="I34" t="n">
+        <v>90.0435245271786</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D35" t="n">
+        <v>280.652058048</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6.44648096126871</v>
+      </c>
+      <c r="F35" t="n">
+        <v>143.364424694546</v>
+      </c>
+      <c r="G35" t="n">
+        <v>100.084102303938</v>
+      </c>
+      <c r="H35" t="n">
+        <v>424.016482742546</v>
+      </c>
+      <c r="I35" t="n">
+        <v>100.291498397268</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D36" t="n">
+        <v>440</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>369.423719913307</v>
+      </c>
+      <c r="G36" t="n">
+        <v>184.412072824992</v>
+      </c>
+      <c r="H36" t="n">
+        <v>809.423719913307</v>
+      </c>
+      <c r="I36" t="n">
+        <v>184.412072824992</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D37" t="n">
+        <v>334</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>381.494615941125</v>
+      </c>
+      <c r="G37" t="n">
+        <v>189.180645936074</v>
+      </c>
+      <c r="H37" t="n">
+        <v>715.494615941125</v>
+      </c>
+      <c r="I37" t="n">
+        <v>189.180645936074</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D38" t="n">
+        <v>401</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>206.3787878127</v>
+      </c>
+      <c r="G38" t="n">
+        <v>106.537389493329</v>
+      </c>
+      <c r="H38" t="n">
+        <v>607.3787878127</v>
+      </c>
+      <c r="I38" t="n">
+        <v>106.537389493329</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D39" t="n">
+        <v>301</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>291.600356116255</v>
+      </c>
+      <c r="G39" t="n">
+        <v>146.961825557103</v>
+      </c>
+      <c r="H39" t="n">
+        <v>592.600356116255</v>
+      </c>
+      <c r="I39" t="n">
+        <v>146.961825557103</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D40" t="n">
+        <v>503</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>270.240976030416</v>
+      </c>
+      <c r="G40" t="n">
+        <v>133.663803080151</v>
+      </c>
+      <c r="H40" t="n">
+        <v>773.240976030416</v>
+      </c>
+      <c r="I40" t="n">
+        <v>133.663803080151</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D41" t="n">
+        <v>473.77314822</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.97388722731025</v>
+      </c>
+      <c r="F41" t="n">
+        <v>539.751965413729</v>
+      </c>
+      <c r="G41" t="n">
+        <v>246.310200347604</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1013.52511363373</v>
+      </c>
+      <c r="I41" t="n">
+        <v>246.360415548901</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D42" t="n">
+        <v>476.390243752</v>
+      </c>
+      <c r="E42" t="n">
+        <v>7.91496581875121</v>
+      </c>
+      <c r="F42" t="n">
+        <v>154.088235302163</v>
+      </c>
+      <c r="G42" t="n">
+        <v>65.3646356014824</v>
+      </c>
+      <c r="H42" t="n">
+        <v>630.478479054163</v>
+      </c>
+      <c r="I42" t="n">
+        <v>65.8421010541628</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D43" t="n">
+        <v>452</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>164.268469059409</v>
+      </c>
+      <c r="G43" t="n">
+        <v>83.6730186736966</v>
+      </c>
+      <c r="H43" t="n">
+        <v>616.268469059409</v>
+      </c>
+      <c r="I43" t="n">
+        <v>83.6730186736966</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D44" t="n">
+        <v>675</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>171.327652474839</v>
+      </c>
+      <c r="G44" t="n">
+        <v>83.5731090723351</v>
+      </c>
+      <c r="H44" t="n">
+        <v>846.327652474839</v>
+      </c>
+      <c r="I44" t="n">
+        <v>83.5731090723351</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1014</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>842.595746119672</v>
+      </c>
+      <c r="G45" t="n">
+        <v>377.80278202758</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1856.59574611967</v>
+      </c>
+      <c r="I45" t="n">
+        <v>377.80278202758</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1262</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>545.862082787614</v>
+      </c>
+      <c r="G46" t="n">
+        <v>192.085571881997</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1807.86208278761</v>
+      </c>
+      <c r="I46" t="n">
+        <v>192.085571881997</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D47" t="n">
+        <v>787.768339436</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5.30920459754566</v>
+      </c>
+      <c r="F47" t="n">
+        <v>213.014130423287</v>
+      </c>
+      <c r="G47" t="n">
+        <v>77.3803232758107</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1000.78246985929</v>
+      </c>
+      <c r="I47" t="n">
+        <v>77.5622465103195</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D48" t="n">
+        <v>927.96139015</v>
+      </c>
+      <c r="E48" t="n">
+        <v>13.2808048580649</v>
+      </c>
+      <c r="F48" t="n">
+        <v>372.511201242245</v>
+      </c>
+      <c r="G48" t="n">
+        <v>139.235944095041</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1300.47259139224</v>
+      </c>
+      <c r="I48" t="n">
+        <v>139.867894478023</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D49" t="n">
+        <v>733.938356164384</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49" t="n">
+        <v>377.797317861532</v>
+      </c>
+      <c r="G49" t="n">
+        <v>148.038332198498</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1111.73567402592</v>
+      </c>
+      <c r="I49" t="n">
+        <v>148.081443463535</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.558823529411765</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.114869871941674</v>
+      </c>
+      <c r="F50" t="n">
+        <v>10.2768358170329</v>
+      </c>
+      <c r="G50" t="n">
+        <v>11.5443597740294</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10.8356593464447</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11.5449312548715</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.70767004341534</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" t="n">
+        <v>5.13135857539516</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.770883441205</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6.8390286188105</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.79576619031212</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D52" t="n">
+        <v>191</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>46.9239224335999</v>
+      </c>
+      <c r="G52" t="n">
+        <v>24.7771942710724</v>
+      </c>
+      <c r="H52" t="n">
+        <v>237.9239224336</v>
+      </c>
+      <c r="I52" t="n">
+        <v>24.7771942710724</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D53" t="n">
+        <v>188.749689069307</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.14522500324939</v>
+      </c>
+      <c r="F53" t="n">
+        <v>46.9239224335999</v>
+      </c>
+      <c r="G53" t="n">
+        <v>24.7771942710724</v>
+      </c>
+      <c r="H53" t="n">
+        <v>235.673611502907</v>
+      </c>
+      <c r="I53" t="n">
+        <v>25.1215494401525</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2266.600476614</v>
+      </c>
+      <c r="E54" t="n">
+        <v>295.396007089212</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1186.04002075357</v>
+      </c>
+      <c r="G54" t="n">
+        <v>495.601232161894</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3452.64049736757</v>
+      </c>
+      <c r="I54" t="n">
+        <v>576.957002145426</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2072.273182924</v>
+      </c>
+      <c r="E55" t="n">
+        <v>270.070191085577</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1427.9607667086</v>
+      </c>
+      <c r="G55" t="n">
+        <v>596.690755013459</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3500.2339496326</v>
+      </c>
+      <c r="I55" t="n">
+        <v>654.963941932326</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3443.314259256</v>
+      </c>
+      <c r="E56" t="n">
+        <v>448.751905698461</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2187.16102975672</v>
+      </c>
+      <c r="G56" t="n">
+        <v>913.931808637619</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5630.47528901272</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1018.15992049758</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2756.139871782</v>
+      </c>
+      <c r="E57" t="n">
+        <v>359.195509532413</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1625.2226736608</v>
+      </c>
+      <c r="G57" t="n">
+        <v>679.119039416544</v>
+      </c>
+      <c r="H57" t="n">
+        <v>4381.3625454428</v>
+      </c>
+      <c r="I57" t="n">
+        <v>768.260427046909</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1519.887514052</v>
+      </c>
+      <c r="E58" t="n">
+        <v>198.08021197737</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1112.65589837203</v>
+      </c>
+      <c r="G58" t="n">
+        <v>464.936785063135</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2632.54341242403</v>
+      </c>
+      <c r="I58" t="n">
+        <v>505.373114126428</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2082.196278772</v>
+      </c>
+      <c r="E59" t="n">
+        <v>271.363424243209</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1361.98238144814</v>
+      </c>
+      <c r="G59" t="n">
+        <v>569.12088514485</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3444.17866022014</v>
+      </c>
+      <c r="I59" t="n">
+        <v>630.505106977777</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2252.542757496</v>
+      </c>
+      <c r="E60" t="n">
+        <v>293.563926782566</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1358.1673047494</v>
+      </c>
+      <c r="G60" t="n">
+        <v>567.526708995985</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3610.7100622454</v>
+      </c>
+      <c r="I60" t="n">
+        <v>638.957232161757</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2656.908913302</v>
+      </c>
+      <c r="E61" t="n">
+        <v>346.263177956089</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1723.06817016952</v>
+      </c>
+      <c r="G61" t="n">
+        <v>720.004968881555</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4379.97708347152</v>
+      </c>
+      <c r="I61" t="n">
+        <v>798.940137696423</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2750.102564769</v>
+      </c>
+      <c r="E62" t="n">
+        <v>40.7076660363377</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1310.19600157296</v>
+      </c>
+      <c r="G62" t="n">
+        <v>393.136286755371</v>
+      </c>
+      <c r="H62" t="n">
+        <v>4060.29856634196</v>
+      </c>
+      <c r="I62" t="n">
+        <v>395.238224413995</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3223.833334445</v>
+      </c>
+      <c r="E63" t="n">
+        <v>31.5955830138882</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1921.28849649587</v>
+      </c>
+      <c r="G63" t="n">
+        <v>563.155389691084</v>
+      </c>
+      <c r="H63" t="n">
+        <v>5145.12183094087</v>
+      </c>
+      <c r="I63" t="n">
+        <v>564.041021384176</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3879.052734375</v>
+      </c>
+      <c r="E64" t="n">
+        <v>40.4879962286046</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3740.60358876383</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1082.25110640023</v>
+      </c>
+      <c r="H64" t="n">
+        <v>7619.65632313884</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1083.0081879391</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2916.026934625</v>
+      </c>
+      <c r="E65" t="n">
+        <v>63.938108992392</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3112.94363535634</v>
+      </c>
+      <c r="G65" t="n">
+        <v>896.25153978079</v>
+      </c>
+      <c r="H65" t="n">
+        <v>6028.97056998134</v>
+      </c>
+      <c r="I65" t="n">
+        <v>898.529300769296</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4076.374677707</v>
+      </c>
+      <c r="E66" t="n">
+        <v>64.3920715561163</v>
+      </c>
+      <c r="F66" t="n">
+        <v>3839.18497609703</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1094.712517583</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7915.55965380403</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1096.60468493993</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4295.200001652</v>
+      </c>
+      <c r="E67" t="n">
+        <v>105.708471040158</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3339.84290161596</v>
+      </c>
+      <c r="G67" t="n">
+        <v>753.005858493049</v>
+      </c>
+      <c r="H67" t="n">
+        <v>7635.04290326796</v>
+      </c>
+      <c r="I67" t="n">
+        <v>760.389442177166</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5314.15384662</v>
+      </c>
+      <c r="E68" t="n">
+        <v>110.603550080456</v>
+      </c>
+      <c r="F68" t="n">
+        <v>5195.9616741765</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1193.03233671557</v>
+      </c>
+      <c r="H68" t="n">
+        <v>10510.1155207965</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1198.14828036408</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3632.536275459</v>
+      </c>
+      <c r="E69" t="n">
+        <v>133.675440886249</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2178.15520184448</v>
+      </c>
+      <c r="G69" t="n">
+        <v>462.40126993334</v>
+      </c>
+      <c r="H69" t="n">
+        <v>5810.69147730348</v>
+      </c>
+      <c r="I69" t="n">
+        <v>481.335701908864</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D70" t="n">
+        <v>4836.89096583</v>
+      </c>
+      <c r="E70" t="n">
+        <v>147.998927484898</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4235.55025140559</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1068.23354814937</v>
+      </c>
+      <c r="H70" t="n">
+        <v>9072.44121723559</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1078.43710800791</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7079.038199328</v>
+      </c>
+      <c r="E71" t="n">
+        <v>128.766930465931</v>
+      </c>
+      <c r="F71" t="n">
+        <v>3021.52678129639</v>
+      </c>
+      <c r="G71" t="n">
+        <v>661.547515772096</v>
+      </c>
+      <c r="H71" t="n">
+        <v>10100.5649806244</v>
+      </c>
+      <c r="I71" t="n">
+        <v>673.96293518698</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6191.987654283</v>
+      </c>
+      <c r="E72" t="n">
+        <v>196.9747023606</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4383.41966760704</v>
+      </c>
+      <c r="G72" t="n">
+        <v>824.194057856677</v>
+      </c>
+      <c r="H72" t="n">
+        <v>10575.40732189</v>
+      </c>
+      <c r="I72" t="n">
+        <v>847.404790154211</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3703.943062096</v>
+      </c>
+      <c r="E73" t="n">
+        <v>135.992659150073</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4013.42766570335</v>
+      </c>
+      <c r="G73" t="n">
+        <v>936.297098281806</v>
+      </c>
+      <c r="H73" t="n">
+        <v>7717.37072779935</v>
+      </c>
+      <c r="I73" t="n">
+        <v>946.121693860594</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5313.238639275</v>
+      </c>
+      <c r="E74" t="n">
+        <v>104.91519037668</v>
+      </c>
+      <c r="F74" t="n">
+        <v>5006.52370582847</v>
+      </c>
+      <c r="G74" t="n">
+        <v>956.472181344951</v>
+      </c>
+      <c r="H74" t="n">
+        <v>10319.7623451035</v>
+      </c>
+      <c r="I74" t="n">
+        <v>962.209036986529</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3242.8400621118</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75" t="n">
+        <v>5746.61873047395</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1240.13411698311</v>
+      </c>
+      <c r="H75" t="n">
+        <v>8989.45879258575</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1246.12653228969</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D76" t="n">
+        <v>102.909090909091</v>
+      </c>
+      <c r="E76" t="n">
+        <v>5.31521512189087</v>
+      </c>
+      <c r="F76" t="n">
+        <v>353.576126797881</v>
+      </c>
+      <c r="G76" t="n">
+        <v>111.235954783157</v>
+      </c>
+      <c r="H76" t="n">
+        <v>456.485217706972</v>
+      </c>
+      <c r="I76" t="n">
+        <v>111.362871498146</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D77" t="n">
+        <v>32.8813559322034</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77" t="n">
+        <v>377.451903837186</v>
+      </c>
+      <c r="G77" t="n">
+        <v>126.415412386466</v>
+      </c>
+      <c r="H77" t="n">
+        <v>410.33325976939</v>
+      </c>
+      <c r="I77" t="n">
+        <v>126.551467664154</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D78" t="n">
+        <v>353.240310077519</v>
+      </c>
+      <c r="E78" t="n">
+        <v>17.4411549373765</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1685.86560133617</v>
+      </c>
+      <c r="G78" t="n">
+        <v>555.094897360691</v>
+      </c>
+      <c r="H78" t="n">
+        <v>2039.10591141369</v>
+      </c>
+      <c r="I78" t="n">
+        <v>555.368831463762</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D79" t="n">
+        <v>353.240310077519</v>
+      </c>
+      <c r="E79" t="n">
+        <v>17.4411549373765</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1685.86560133617</v>
+      </c>
+      <c r="G79" t="n">
+        <v>555.094897360691</v>
+      </c>
+      <c r="H79" t="n">
+        <v>2039.10591141369</v>
+      </c>
+      <c r="I79" t="n">
+        <v>555.368831463762</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D80" t="n">
+        <v>477.887296932</v>
+      </c>
+      <c r="E80" t="n">
+        <v>29.0420412763979</v>
+      </c>
+      <c r="F80" t="n">
+        <v>195.543895119496</v>
+      </c>
+      <c r="G80" t="n">
+        <v>141.292131765924</v>
+      </c>
+      <c r="H80" t="n">
+        <v>673.431192051496</v>
+      </c>
+      <c r="I80" t="n">
+        <v>144.245993568138</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D81" t="n">
+        <v>537.394335822</v>
+      </c>
+      <c r="E81" t="n">
+        <v>32.6583874123478</v>
+      </c>
+      <c r="F81" t="n">
+        <v>186.48932473106</v>
+      </c>
+      <c r="G81" t="n">
+        <v>134.749664400094</v>
+      </c>
+      <c r="H81" t="n">
+        <v>723.88366055306</v>
+      </c>
+      <c r="I81" t="n">
+        <v>138.650792728757</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1305.492883956</v>
+      </c>
+      <c r="E82" t="n">
+        <v>79.3370706133016</v>
+      </c>
+      <c r="F82" t="n">
+        <v>502.006277497335</v>
+      </c>
+      <c r="G82" t="n">
+        <v>362.729488763277</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1807.49916145333</v>
+      </c>
+      <c r="I82" t="n">
+        <v>371.304528375252</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1468.450621224</v>
+      </c>
+      <c r="E83" t="n">
+        <v>89.2402954163645</v>
+      </c>
+      <c r="F83" t="n">
+        <v>494.344717937889</v>
+      </c>
+      <c r="G83" t="n">
+        <v>357.193554838343</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1962.79533916189</v>
+      </c>
+      <c r="I83" t="n">
+        <v>368.172603467521</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1228.591479852</v>
+      </c>
+      <c r="E84" t="n">
+        <v>74.6636386837663</v>
+      </c>
+      <c r="F84" t="n">
+        <v>353.302371502634</v>
+      </c>
+      <c r="G84" t="n">
+        <v>255.282043947516</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1581.89385135463</v>
+      </c>
+      <c r="I84" t="n">
+        <v>265.976654809255</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1518.802731054</v>
+      </c>
+      <c r="E85" t="n">
+        <v>92.3002806083221</v>
+      </c>
+      <c r="F85" t="n">
+        <v>536.83154822209</v>
+      </c>
+      <c r="G85" t="n">
+        <v>387.892824785703</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2055.63427927609</v>
+      </c>
+      <c r="I85" t="n">
+        <v>398.723193858355</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1761.408351144</v>
+      </c>
+      <c r="E86" t="n">
+        <v>107.043845624118</v>
+      </c>
+      <c r="F86" t="n">
+        <v>508.971331642286</v>
+      </c>
+      <c r="G86" t="n">
+        <v>367.762155967762</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2270.37968278629</v>
+      </c>
+      <c r="I86" t="n">
+        <v>383.024004793507</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1472.112592848</v>
+      </c>
+      <c r="E87" t="n">
+        <v>89.4628397939614</v>
+      </c>
+      <c r="F87" t="n">
+        <v>486.857284732067</v>
+      </c>
+      <c r="G87" t="n">
+        <v>351.783437593521</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1958.96987758007</v>
+      </c>
+      <c r="I87" t="n">
+        <v>362.980972874771</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1631.345237938</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8.74782314945267</v>
+      </c>
+      <c r="F88" t="n">
+        <v>909.30703784013</v>
+      </c>
+      <c r="G88" t="n">
+        <v>479.750870109319</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2540.65227577813</v>
+      </c>
+      <c r="I88" t="n">
+        <v>479.830617802265</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1725.224755632</v>
+      </c>
+      <c r="E89" t="n">
+        <v>8.00616440390778</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1446.6747634456</v>
+      </c>
+      <c r="G89" t="n">
+        <v>758.652027143754</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3171.8995190776</v>
+      </c>
+      <c r="I89" t="n">
+        <v>758.694271072208</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1857.620475152</v>
+      </c>
+      <c r="E90" t="n">
+        <v>15.6426960873022</v>
+      </c>
+      <c r="F90" t="n">
+        <v>736.698297695943</v>
+      </c>
+      <c r="G90" t="n">
+        <v>400.849750547983</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2594.31877284794</v>
+      </c>
+      <c r="I90" t="n">
+        <v>401.154853460929</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D91" t="n">
+        <v>838.810495584</v>
+      </c>
+      <c r="E91" t="n">
+        <v>7.86011149111767</v>
+      </c>
+      <c r="F91" t="n">
+        <v>670.702172748049</v>
+      </c>
+      <c r="G91" t="n">
+        <v>356.978080801484</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1509.51266833205</v>
+      </c>
+      <c r="I91" t="n">
+        <v>357.064604133991</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1555.252829662</v>
+      </c>
+      <c r="E92" t="n">
+        <v>15.9698323437662</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1042.15619241671</v>
+      </c>
+      <c r="G92" t="n">
+        <v>545.223633496778</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2597.40902207871</v>
+      </c>
+      <c r="I92" t="n">
+        <v>545.457464948933</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1953.435970644</v>
+      </c>
+      <c r="E93" t="n">
+        <v>21.5222568610264</v>
+      </c>
+      <c r="F93" t="n">
+        <v>792.797334263872</v>
+      </c>
+      <c r="G93" t="n">
+        <v>333.85543930839</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2746.23330490787</v>
+      </c>
+      <c r="I93" t="n">
+        <v>334.548444767257</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1921.951187397</v>
+      </c>
+      <c r="E94" t="n">
+        <v>23.1481116354229</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1167.91589792281</v>
+      </c>
+      <c r="G94" t="n">
+        <v>464.99515822764</v>
+      </c>
+      <c r="H94" t="n">
+        <v>3089.86708531981</v>
+      </c>
+      <c r="I94" t="n">
+        <v>465.570974446898</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1454.0713324</v>
+      </c>
+      <c r="E95" t="n">
+        <v>20.8073836954577</v>
+      </c>
+      <c r="F95" t="n">
+        <v>989.851057251874</v>
+      </c>
+      <c r="G95" t="n">
+        <v>403.410633528615</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2443.92238965187</v>
+      </c>
+      <c r="I95" t="n">
+        <v>403.94688569193</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1977.5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>26.0535952375099</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1628.01842449366</v>
+      </c>
+      <c r="G96" t="n">
+        <v>553.151080947896</v>
+      </c>
+      <c r="H96" t="n">
+        <v>3605.51842449366</v>
+      </c>
+      <c r="I96" t="n">
+        <v>553.764307425665</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2330.011180015</v>
+      </c>
+      <c r="E97" t="n">
+        <v>24.2936187461708</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1591.83015830481</v>
+      </c>
+      <c r="G97" t="n">
+        <v>689.767365406762</v>
+      </c>
+      <c r="H97" t="n">
+        <v>3921.84133831981</v>
+      </c>
+      <c r="I97" t="n">
+        <v>690.195043659377</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1388.278074236</v>
+      </c>
+      <c r="E98" t="n">
+        <v>13.883955892641</v>
+      </c>
+      <c r="F98" t="n">
+        <v>430.043068222392</v>
+      </c>
+      <c r="G98" t="n">
+        <v>168.460292366642</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1818.32114245839</v>
+      </c>
+      <c r="I98" t="n">
+        <v>169.03145960289</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1575.391304916</v>
+      </c>
+      <c r="E99" t="n">
+        <v>19.2625108419437</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1164.58185348444</v>
+      </c>
+      <c r="G99" t="n">
+        <v>385.164036276274</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2739.97315840044</v>
+      </c>
+      <c r="I99" t="n">
+        <v>385.645405994376</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1618.54753609</v>
+      </c>
+      <c r="E100" t="n">
+        <v>24.8572408017262</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1480.85486820734</v>
+      </c>
+      <c r="G100" t="n">
+        <v>536.152813007211</v>
+      </c>
+      <c r="H100" t="n">
+        <v>3099.40240429734</v>
+      </c>
+      <c r="I100" t="n">
+        <v>536.728722275807</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1223.03839732888</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101" t="n">
+        <v>763.294649617526</v>
+      </c>
+      <c r="G101" t="n">
+        <v>269.871919201183</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1986.33304694641</v>
+      </c>
+      <c r="I101" t="n">
+        <v>271.402074790531</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.26470588235294</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.25996865755221</v>
+      </c>
+      <c r="F102" t="n">
+        <v>8.80193445686404</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5.94401826316327</v>
+      </c>
+      <c r="H102" t="n">
+        <v>10.066640339217</v>
+      </c>
+      <c r="I102" t="n">
+        <v>5.9497005652157</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D103" t="n">
+        <v>9.23299565846599</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103" t="n">
+        <v>53.3012313051519</v>
+      </c>
+      <c r="G103" t="n">
+        <v>32.0966700853221</v>
+      </c>
+      <c r="H103" t="n">
+        <v>62.5342269636179</v>
+      </c>
+      <c r="I103" t="n">
+        <v>32.2274705512715</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2890.440601452</v>
+      </c>
+      <c r="E106" t="n">
+        <v>114.352790109135</v>
+      </c>
+      <c r="F106" t="n">
+        <v>5266.56433695119</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1175.85440476127</v>
+      </c>
+      <c r="H106" t="n">
+        <v>8157.00493840319</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1181.40176984895</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2928.516279478</v>
+      </c>
+      <c r="E107" t="n">
+        <v>115.859155614582</v>
+      </c>
+      <c r="F107" t="n">
+        <v>6199.42168396906</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1384.13144275524</v>
+      </c>
+      <c r="H107" t="n">
+        <v>9127.93796344706</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1388.97199207307</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D108" t="n">
+        <v>5692.313864887</v>
+      </c>
+      <c r="E108" t="n">
+        <v>225.201643064297</v>
+      </c>
+      <c r="F108" t="n">
+        <v>10084.785151846</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2251.60812309261</v>
+      </c>
+      <c r="H108" t="n">
+        <v>15777.099016733</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2262.84222163533</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4001.257121254</v>
+      </c>
+      <c r="E109" t="n">
+        <v>158.299366376736</v>
+      </c>
+      <c r="F109" t="n">
+        <v>7863.25561760418</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1755.61203892483</v>
+      </c>
+      <c r="H109" t="n">
+        <v>11864.5127388582</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1762.73433069566</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D110" t="n">
+        <v>3363.903380384</v>
+      </c>
+      <c r="E110" t="n">
+        <v>133.084117698604</v>
+      </c>
+      <c r="F110" t="n">
+        <v>6757.11728457578</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1508.64693075344</v>
+      </c>
+      <c r="H110" t="n">
+        <v>10121.0206649598</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1514.50551139815</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4647.715915565</v>
+      </c>
+      <c r="E111" t="n">
+        <v>183.874832893126</v>
+      </c>
+      <c r="F111" t="n">
+        <v>9474.09585163413</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2115.2608466421</v>
+      </c>
+      <c r="H111" t="n">
+        <v>14121.8117671991</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2123.23771714533</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6563.088066699</v>
+      </c>
+      <c r="E112" t="n">
+        <v>259.651567232341</v>
+      </c>
+      <c r="F112" t="n">
+        <v>11099.2359728591</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2478.10235917983</v>
+      </c>
+      <c r="H112" t="n">
+        <v>17662.3240395581</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2491.66816388918</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D113" t="n">
+        <v>7932.984743504</v>
+      </c>
+      <c r="E113" t="n">
+        <v>313.847978352221</v>
+      </c>
+      <c r="F113" t="n">
+        <v>12894.2924007546</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2878.88071723135</v>
+      </c>
+      <c r="H113" t="n">
+        <v>20827.2771442586</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2895.93762666986</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9186.80510982</v>
+      </c>
+      <c r="E114" t="n">
+        <v>179.875253447849</v>
+      </c>
+      <c r="F114" t="n">
+        <v>15788.7882611966</v>
+      </c>
+      <c r="G114" t="n">
+        <v>3392.7163958241</v>
+      </c>
+      <c r="H114" t="n">
+        <v>24975.5933710166</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3397.48136849882</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9468.580994055</v>
+      </c>
+      <c r="E115" t="n">
+        <v>171.474719269197</v>
+      </c>
+      <c r="F115" t="n">
+        <v>18470.2990691535</v>
+      </c>
+      <c r="G115" t="n">
+        <v>3965.44837849144</v>
+      </c>
+      <c r="H115" t="n">
+        <v>27938.8800632085</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3969.15411918319</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9267.8819421</v>
+      </c>
+      <c r="E116" t="n">
+        <v>143.753960875866</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15988.0628599741</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3437.6582064743</v>
+      </c>
+      <c r="H116" t="n">
+        <v>25255.9448020741</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3440.6626027275</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7374.435017652</v>
+      </c>
+      <c r="E117" t="n">
+        <v>97.6829151651301</v>
+      </c>
+      <c r="F117" t="n">
+        <v>12655.5879872771</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2722.66087678678</v>
+      </c>
+      <c r="H117" t="n">
+        <v>20030.0230049291</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2724.41263429395</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9131.572019616</v>
+      </c>
+      <c r="E118" t="n">
+        <v>155.447321233812</v>
+      </c>
+      <c r="F118" t="n">
+        <v>18353.601880014</v>
+      </c>
+      <c r="G118" t="n">
+        <v>3943.48259843869</v>
+      </c>
+      <c r="H118" t="n">
+        <v>27485.17389963</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3946.54518203803</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D119" t="n">
+        <v>6779.784687678</v>
+      </c>
+      <c r="E119" t="n">
+        <v>103.417424900198</v>
+      </c>
+      <c r="F119" t="n">
+        <v>18746.0769414431</v>
+      </c>
+      <c r="G119" t="n">
+        <v>3445.31384539464</v>
+      </c>
+      <c r="H119" t="n">
+        <v>25525.8616291211</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3446.86562793518</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D120" t="n">
+        <v>10171.812732051</v>
+      </c>
+      <c r="E120" t="n">
+        <v>147.245104506201</v>
+      </c>
+      <c r="F120" t="n">
+        <v>21710.1714890854</v>
+      </c>
+      <c r="G120" t="n">
+        <v>3461.82767268298</v>
+      </c>
+      <c r="H120" t="n">
+        <v>31881.9842211364</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3464.9577134728</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D121" t="n">
+        <v>11239.626664656</v>
+      </c>
+      <c r="E121" t="n">
+        <v>197.217085206936</v>
+      </c>
+      <c r="F121" t="n">
+        <v>23884.9694862707</v>
+      </c>
+      <c r="G121" t="n">
+        <v>4292.77492832133</v>
+      </c>
+      <c r="H121" t="n">
+        <v>35124.5961509267</v>
+      </c>
+      <c r="I121" t="n">
+        <v>4297.3027777807</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D122" t="n">
+        <v>11714.673218952</v>
+      </c>
+      <c r="E122" t="n">
+        <v>164.964373163395</v>
+      </c>
+      <c r="F122" t="n">
+        <v>22213.0617577548</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2984.82351069379</v>
+      </c>
+      <c r="H122" t="n">
+        <v>33927.7349767068</v>
+      </c>
+      <c r="I122" t="n">
+        <v>2989.37863684137</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D123" t="n">
+        <v>14301.688249922</v>
+      </c>
+      <c r="E123" t="n">
+        <v>137.244220867186</v>
+      </c>
+      <c r="F123" t="n">
+        <v>24072.7638880488</v>
+      </c>
+      <c r="G123" t="n">
+        <v>3266.79944383316</v>
+      </c>
+      <c r="H123" t="n">
+        <v>38374.4521379708</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3269.68111325709</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D124" t="n">
+        <v>15335.38214766</v>
+      </c>
+      <c r="E124" t="n">
+        <v>165.317680579575</v>
+      </c>
+      <c r="F124" t="n">
+        <v>23504.0701042128</v>
+      </c>
+      <c r="G124" t="n">
+        <v>3412.93501125488</v>
+      </c>
+      <c r="H124" t="n">
+        <v>38839.4522518728</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3416.93654119616</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D125" t="n">
+        <v>11325.151098344</v>
+      </c>
+      <c r="E125" t="n">
+        <v>131.742566861527</v>
+      </c>
+      <c r="F125" t="n">
+        <v>21855.2461707152</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3108.99382985177</v>
+      </c>
+      <c r="H125" t="n">
+        <v>33180.3972690592</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3111.78385142343</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D126" t="n">
+        <v>14218.0152671756</v>
+      </c>
+      <c r="E126" t="n">
+        <v>171.718429559247</v>
+      </c>
+      <c r="F126" t="n">
+        <v>21963.0059115963</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2754.50073704789</v>
+      </c>
+      <c r="H126" t="n">
+        <v>36181.0211787719</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2759.84809898075</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12348.4834254144</v>
+      </c>
+      <c r="E127"/>
+      <c r="F127" t="n">
+        <v>42148.529865957</v>
+      </c>
+      <c r="G127" t="n">
+        <v>6461.16839076602</v>
+      </c>
+      <c r="H127" t="n">
+        <v>54497.0132913713</v>
+      </c>
+      <c r="I127" t="n">
+        <v>6463.55456208661</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>423.98874294044</v>
+      </c>
+      <c r="G128" t="n">
+        <v>121.016420192057</v>
+      </c>
+      <c r="H128" t="n">
+        <v>423.98874294044</v>
+      </c>
+      <c r="I128" t="n">
+        <v>121.016420192057</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D129" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="E129"/>
+      <c r="F129" t="n">
+        <v>932.264684145417</v>
+      </c>
+      <c r="G129" t="n">
+        <v>214.487278987221</v>
+      </c>
+      <c r="H129" t="n">
+        <v>985.064684145417</v>
+      </c>
+      <c r="I129" t="n">
+        <v>214.552775751869</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D130" t="n">
+        <v>251.264018691589</v>
+      </c>
+      <c r="E130" t="n">
+        <v>20.7821604768481</v>
+      </c>
+      <c r="F130" t="n">
+        <v>6102.09974592408</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1109.48749736279</v>
+      </c>
+      <c r="H130" t="n">
+        <v>6353.36376461567</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1109.68211889642</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D131" t="n">
+        <v>251.264018691589</v>
+      </c>
+      <c r="E131" t="n">
+        <v>20.7821604768481</v>
+      </c>
+      <c r="F131" t="n">
+        <v>6102.09974592408</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1109.48749736279</v>
+      </c>
+      <c r="H131" t="n">
+        <v>6353.36376461567</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1109.68211889642</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1627.425651764</v>
+      </c>
+      <c r="E132" t="n">
+        <v>52.1328096048352</v>
+      </c>
+      <c r="F132" t="n">
+        <v>519.650143676698</v>
+      </c>
+      <c r="G132" t="n">
+        <v>208.115465412798</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2147.0757954407</v>
+      </c>
+      <c r="I132" t="n">
+        <v>214.545745195004</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2878.928256864</v>
+      </c>
+      <c r="E133" t="n">
+        <v>92.223333531943</v>
+      </c>
+      <c r="F133" t="n">
+        <v>753.125608543685</v>
+      </c>
+      <c r="G133" t="n">
+        <v>301.620404504073</v>
+      </c>
+      <c r="H133" t="n">
+        <v>3632.05386540768</v>
+      </c>
+      <c r="I133" t="n">
+        <v>315.404520672968</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D134" t="n">
+        <v>4495.96407568</v>
+      </c>
+      <c r="E134" t="n">
+        <v>144.023316145685</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1127.40423635981</v>
+      </c>
+      <c r="G134" t="n">
+        <v>451.515813501549</v>
+      </c>
+      <c r="H134" t="n">
+        <v>5623.36831203981</v>
+      </c>
+      <c r="I134" t="n">
+        <v>473.929578561589</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3661.943849036</v>
+      </c>
+      <c r="E135" t="n">
+        <v>117.306385860677</v>
+      </c>
+      <c r="F135" t="n">
+        <v>939.122834223884</v>
+      </c>
+      <c r="G135" t="n">
+        <v>376.11071237553</v>
+      </c>
+      <c r="H135" t="n">
+        <v>4601.06668325988</v>
+      </c>
+      <c r="I135" t="n">
+        <v>393.979766139484</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3896.1873555</v>
+      </c>
+      <c r="E136" t="n">
+        <v>124.810121659864</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1242.75514737375</v>
+      </c>
+      <c r="G136" t="n">
+        <v>497.712872856917</v>
+      </c>
+      <c r="H136" t="n">
+        <v>5138.94250287375</v>
+      </c>
+      <c r="I136" t="n">
+        <v>513.123445455609</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D137" t="n">
+        <v>3863.12879612</v>
+      </c>
+      <c r="E137" t="n">
+        <v>123.751126688204</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1125.12005990408</v>
+      </c>
+      <c r="G137" t="n">
+        <v>450.601020246987</v>
+      </c>
+      <c r="H137" t="n">
+        <v>4988.24885602408</v>
+      </c>
+      <c r="I137" t="n">
+        <v>467.285374053399</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5589.730126024</v>
+      </c>
+      <c r="E138" t="n">
+        <v>179.060921208018</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1641.50709435832</v>
+      </c>
+      <c r="G138" t="n">
+        <v>657.409638153268</v>
+      </c>
+      <c r="H138" t="n">
+        <v>7231.23722038232</v>
+      </c>
+      <c r="I138" t="n">
+        <v>681.359116648977</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D139" t="n">
+        <v>6841.232731124</v>
+      </c>
+      <c r="E139" t="n">
+        <v>219.151445135126</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2066.52707058369</v>
+      </c>
+      <c r="G139" t="n">
+        <v>827.626525877079</v>
+      </c>
+      <c r="H139" t="n">
+        <v>8907.75980170769</v>
+      </c>
+      <c r="I139" t="n">
+        <v>856.150116650215</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6960.523971711</v>
+      </c>
+      <c r="E140" t="n">
+        <v>80.7307788333669</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2994.80653640979</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1056.04934207992</v>
+      </c>
+      <c r="H140" t="n">
+        <v>9955.33050812079</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1059.13062063112</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D141" t="n">
+        <v>5911.372241324</v>
+      </c>
+      <c r="E141" t="n">
+        <v>41.2976761119703</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2040.68876339674</v>
+      </c>
+      <c r="G141" t="n">
+        <v>713.196524689904</v>
+      </c>
+      <c r="H141" t="n">
+        <v>7952.06100472074</v>
+      </c>
+      <c r="I141" t="n">
+        <v>714.391195971791</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6612.166665576</v>
+      </c>
+      <c r="E142" t="n">
+        <v>49.5744999283392</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2716.87086010802</v>
+      </c>
+      <c r="G142" t="n">
+        <v>945.469214738202</v>
+      </c>
+      <c r="H142" t="n">
+        <v>9329.03752568402</v>
+      </c>
+      <c r="I142" t="n">
+        <v>946.768011215429</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D143" t="n">
+        <v>3545.91367026</v>
+      </c>
+      <c r="E143" t="n">
+        <v>30.5507813309447</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1472.20006890719</v>
+      </c>
+      <c r="G143" t="n">
+        <v>510.550370901249</v>
+      </c>
+      <c r="H143" t="n">
+        <v>5018.11373916719</v>
+      </c>
+      <c r="I143" t="n">
+        <v>511.463616953674</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4864.974357182</v>
+      </c>
+      <c r="E144" t="n">
+        <v>29.8077918228624</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2458.72564439432</v>
+      </c>
+      <c r="G144" t="n">
+        <v>846.792686025149</v>
+      </c>
+      <c r="H144" t="n">
+        <v>7323.70000157632</v>
+      </c>
+      <c r="I144" t="n">
+        <v>847.317152876679</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3543.177914211</v>
+      </c>
+      <c r="E145" t="n">
+        <v>41.7283934606642</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1958.84450625318</v>
+      </c>
+      <c r="G145" t="n">
+        <v>671.469243587068</v>
+      </c>
+      <c r="H145" t="n">
+        <v>5502.02242046418</v>
+      </c>
+      <c r="I145" t="n">
+        <v>672.764597689413</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4440.579527264</v>
+      </c>
+      <c r="E146" t="n">
+        <v>41.2908348891906</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2097.45777738402</v>
+      </c>
+      <c r="G146" t="n">
+        <v>562.001535209892</v>
+      </c>
+      <c r="H146" t="n">
+        <v>6538.03730464802</v>
+      </c>
+      <c r="I146" t="n">
+        <v>563.516333946161</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D147" t="n">
+        <v>4226.3888869</v>
+      </c>
+      <c r="E147" t="n">
+        <v>38.227921595347</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2052.47550979693</v>
+      </c>
+      <c r="G147" t="n">
+        <v>559.134892504686</v>
+      </c>
+      <c r="H147" t="n">
+        <v>6278.86439669693</v>
+      </c>
+      <c r="I147" t="n">
+        <v>560.440185930423</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D148" t="n">
+        <v>4913.94711051</v>
+      </c>
+      <c r="E148" t="n">
+        <v>32.2622759352157</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1980.02708222387</v>
+      </c>
+      <c r="G148" t="n">
+        <v>797.703438309494</v>
+      </c>
+      <c r="H148" t="n">
+        <v>6893.97419273387</v>
+      </c>
+      <c r="I148" t="n">
+        <v>798.355578636054</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4742.45014452</v>
+      </c>
+      <c r="E149" t="n">
+        <v>28.2913690103537</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4892.58265304413</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1555.89419845432</v>
+      </c>
+      <c r="H149" t="n">
+        <v>9635.03279756413</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1556.15139313124</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3930.861196836</v>
+      </c>
+      <c r="E150" t="n">
+        <v>30.0433728295227</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3422.64922934728</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1262.36785752594</v>
+      </c>
+      <c r="H150" t="n">
+        <v>7353.51042618328</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1262.72531136649</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>9</v>
+      </c>
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D151" t="n">
+        <v>3910.83333232</v>
+      </c>
+      <c r="E151" t="n">
+        <v>46.5980130552795</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2005.46522305006</v>
+      </c>
+      <c r="G151" t="n">
+        <v>852.010643364404</v>
+      </c>
+      <c r="H151" t="n">
+        <v>5916.29855537006</v>
+      </c>
+      <c r="I151" t="n">
+        <v>853.283956972664</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>9</v>
+      </c>
+      <c r="B152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D152" t="n">
+        <v>3916.016711715</v>
+      </c>
+      <c r="E152" t="n">
+        <v>58.1435814643371</v>
+      </c>
+      <c r="F152" t="n">
+        <v>3110.85703374715</v>
+      </c>
+      <c r="G152" t="n">
+        <v>892.01411399942</v>
+      </c>
+      <c r="H152" t="n">
+        <v>7026.87374546215</v>
+      </c>
+      <c r="I152" t="n">
+        <v>893.907073268621</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D153" t="n">
+        <v>3386.33440514469</v>
+      </c>
+      <c r="E153"/>
+      <c r="F153" t="n">
+        <v>5978.95070657147</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1975.60945430877</v>
+      </c>
+      <c r="H153" t="n">
+        <v>9365.28511171617</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1975.86291295062</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>9</v>
+      </c>
+      <c r="B154" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.256945766185324</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.256945766185324</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>9</v>
+      </c>
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D155" t="n">
+        <v>5.23188405797101</v>
+      </c>
+      <c r="E155"/>
+      <c r="F155" t="n">
+        <v>9.76659064369326</v>
+      </c>
+      <c r="G155" t="n">
+        <v>11.361441452324</v>
+      </c>
+      <c r="H155" t="n">
+        <v>14.9984747016643</v>
+      </c>
+      <c r="I155" t="n">
+        <v>11.3850438971884</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>119.399253251535</v>
+      </c>
+      <c r="G156" t="n">
+        <v>83.1193170891222</v>
+      </c>
+      <c r="H156" t="n">
+        <v>119.399253251535</v>
+      </c>
+      <c r="I156" t="n">
+        <v>83.1193170891222</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>119.399253251535</v>
+      </c>
+      <c r="G157" t="n">
+        <v>83.1193170891222</v>
+      </c>
+      <c r="H157" t="n">
+        <v>119.399253251535</v>
+      </c>
+      <c r="I157" t="n">
+        <v>83.1193170891222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1212.178393426</v>
+      </c>
+      <c r="E2" t="n">
+        <v>89.9368778360023</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1662.80952032725</v>
+      </c>
+      <c r="G2" t="n">
+        <v>978.22869256513</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2874.98791375325</v>
+      </c>
+      <c r="I2" t="n">
+        <v>982.354323527194</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1007.216444465</v>
+      </c>
+      <c r="E3" t="n">
+        <v>74.7298440654736</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1181.9853304093</v>
+      </c>
+      <c r="G3" t="n">
+        <v>695.360442830455</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2189.2017748743</v>
+      </c>
+      <c r="I3" t="n">
+        <v>699.364493699398</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>958.83486853</v>
+      </c>
+      <c r="E4" t="n">
+        <v>71.1402009007565</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1095.61324578453</v>
+      </c>
+      <c r="G4" t="n">
+        <v>644.547857032902</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2054.44811431453</v>
+      </c>
+      <c r="I4" t="n">
+        <v>648.46192501172</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1157.639162372</v>
+      </c>
+      <c r="E5" t="n">
+        <v>85.8903709957758</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1244.46309683856</v>
+      </c>
+      <c r="G5" t="n">
+        <v>732.116032103514</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2402.10225921056</v>
+      </c>
+      <c r="I5" t="n">
+        <v>737.137056654179</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1362.601111333</v>
+      </c>
+      <c r="E6" t="n">
+        <v>101.097404766304</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1606.20740591328</v>
+      </c>
+      <c r="G6" t="n">
+        <v>944.9297417817</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2968.80851724628</v>
+      </c>
+      <c r="I6" t="n">
+        <v>950.32252533238</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1059.996345485</v>
+      </c>
+      <c r="E7" t="n">
+        <v>78.6458184269831</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1379.99480332459</v>
+      </c>
+      <c r="G7" t="n">
+        <v>811.849159930966</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2439.99114880959</v>
+      </c>
+      <c r="I7" t="n">
+        <v>815.649571345848</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1526.218804495</v>
+      </c>
+      <c r="E8" t="n">
+        <v>113.236925286984</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1589.16801506894</v>
+      </c>
+      <c r="G8" t="n">
+        <v>934.905490161774</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3115.38681956394</v>
+      </c>
+      <c r="I8" t="n">
+        <v>941.738220942039</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1143.58574073</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.69535222320967</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1173.22703571949</v>
+      </c>
+      <c r="G9" t="n">
+        <v>681.858254990804</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2316.81277644949</v>
+      </c>
+      <c r="I9" t="n">
+        <v>681.8744211595</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1023.84534456</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.98440869110871</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1013.67875092334</v>
+      </c>
+      <c r="G10" t="n">
+        <v>591.734650552429</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2037.52409548334</v>
+      </c>
+      <c r="I10" t="n">
+        <v>591.755642976394</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1028.758064841</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.63898088564804</v>
+      </c>
+      <c r="F11" t="n">
+        <v>906.36479295804</v>
+      </c>
+      <c r="G11" t="n">
+        <v>527.258300287084</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1935.12285779904</v>
+      </c>
+      <c r="I11" t="n">
+        <v>527.300096044771</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D12" t="n">
+        <v>452.694490584</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.70320461674658</v>
+      </c>
+      <c r="F12" t="n">
+        <v>430.780309396733</v>
+      </c>
+      <c r="G12" t="n">
+        <v>250.991852289694</v>
+      </c>
+      <c r="H12" t="n">
+        <v>883.474799980733</v>
+      </c>
+      <c r="I12" t="n">
+        <v>251.0064087449</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D13" t="n">
+        <v>809.796565272</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5.28341344208458</v>
+      </c>
+      <c r="F13" t="n">
+        <v>426.626342698959</v>
+      </c>
+      <c r="G13" t="n">
+        <v>247.703541546001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1236.42290797096</v>
+      </c>
+      <c r="I13" t="n">
+        <v>247.759881643561</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D14" t="n">
+        <v>925.821217154</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8.11976228716087</v>
+      </c>
+      <c r="F14" t="n">
+        <v>624.853465197058</v>
+      </c>
+      <c r="G14" t="n">
+        <v>500.140145045778</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1550.67468235106</v>
+      </c>
+      <c r="I14" t="n">
+        <v>500.206052768268</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1690.630798125</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12.0204903186185</v>
+      </c>
+      <c r="F15" t="n">
+        <v>651.505499680928</v>
+      </c>
+      <c r="G15" t="n">
+        <v>346.33490808727</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2342.13629780593</v>
+      </c>
+      <c r="I15" t="n">
+        <v>346.543447127944</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1262.540640505</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11.1215895851268</v>
+      </c>
+      <c r="F16" t="n">
+        <v>353.711953722178</v>
+      </c>
+      <c r="G16" t="n">
+        <v>240.378523508282</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1616.25259422718</v>
+      </c>
+      <c r="I16" t="n">
+        <v>240.635667179497</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D17" t="n">
+        <v>869.033673674</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10.426468702298</v>
+      </c>
+      <c r="F17" t="n">
+        <v>970.261239566825</v>
+      </c>
+      <c r="G17" t="n">
+        <v>701.635683021489</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1839.29491324083</v>
+      </c>
+      <c r="I17" t="n">
+        <v>701.713148614612</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1342.350426965</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10.302975177103</v>
+      </c>
+      <c r="F18" t="n">
+        <v>415.350385485469</v>
+      </c>
+      <c r="G18" t="n">
+        <v>304.95634414508</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1757.70081245047</v>
+      </c>
+      <c r="I18" t="n">
+        <v>305.130337940744</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1678.095663435</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13.8862373413391</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1354.97602885933</v>
+      </c>
+      <c r="G19" t="n">
+        <v>712.618398269685</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3033.07169229433</v>
+      </c>
+      <c r="I19" t="n">
+        <v>712.75368055167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2641.472049916</v>
+      </c>
+      <c r="E20" t="n">
+        <v>30.3735463586325</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1025.91392445323</v>
+      </c>
+      <c r="G20" t="n">
+        <v>839.474548452983</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3667.38597436923</v>
+      </c>
+      <c r="I20" t="n">
+        <v>840.023850743977</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2699.183497889</v>
+      </c>
+      <c r="E21" t="n">
+        <v>32.5555665101991</v>
+      </c>
+      <c r="F21" t="n">
+        <v>713.384986562868</v>
+      </c>
+      <c r="G21" t="n">
+        <v>436.850351864928</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3412.56848445187</v>
+      </c>
+      <c r="I21" t="n">
+        <v>438.061747742612</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3427.89946524064</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="n">
+        <v>1341.45375974209</v>
+      </c>
+      <c r="G22" t="n">
+        <v>829.921214889402</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4769.35322498273</v>
+      </c>
+      <c r="I22" t="n">
+        <v>830.7479881024</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2912.58822053604</v>
+      </c>
+      <c r="E23" t="n">
+        <v>215.199429420544</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3381.57541342218</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2008.06347163449</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6294.16363395823</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2019.56175952499</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6279.55426545867</v>
+      </c>
+      <c r="E24" t="n">
+        <v>463.971008814057</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2363.55614342548</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1304.36064214206</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8643.11040888415</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1384.42254452504</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5534.26916859248</v>
+      </c>
+      <c r="E25" t="n">
+        <v>397.232080850614</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1634.15804586966</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1078.48920155647</v>
+      </c>
+      <c r="H25" t="n">
+        <v>7168.42721446213</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1149.31818219796</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7.905691776</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.181591012993485</v>
+      </c>
+      <c r="F26" t="n">
+        <v>16.3936414816329</v>
+      </c>
+      <c r="G26" t="n">
+        <v>26.2164427680078</v>
+      </c>
+      <c r="H26" t="n">
+        <v>24.2993332576329</v>
+      </c>
+      <c r="I26" t="n">
+        <v>26.2170716653143</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>21.740652384</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.499375285732084</v>
+      </c>
+      <c r="F27" t="n">
+        <v>30.3492542300999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>48.5340299448759</v>
+      </c>
+      <c r="H27" t="n">
+        <v>52.0899066140999</v>
+      </c>
+      <c r="I27" t="n">
+        <v>48.5365989575507</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>52.375208016</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.20304046108184</v>
+      </c>
+      <c r="F28" t="n">
+        <v>53.0481424354377</v>
+      </c>
+      <c r="G28" t="n">
+        <v>84.8337199313482</v>
+      </c>
+      <c r="H28" t="n">
+        <v>105.423350451438</v>
+      </c>
+      <c r="I28" t="n">
+        <v>84.842249756483</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D29" t="n">
+        <v>40.516670352</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.93065394159161</v>
+      </c>
+      <c r="F29" t="n">
+        <v>68.0966646160136</v>
+      </c>
+      <c r="G29" t="n">
+        <v>108.899069959417</v>
+      </c>
+      <c r="H29" t="n">
+        <v>108.613334968014</v>
+      </c>
+      <c r="I29" t="n">
+        <v>108.903046581742</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D30" t="n">
+        <v>134.396760192</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.08704722088924</v>
+      </c>
+      <c r="F30" t="n">
+        <v>66.3311955333762</v>
+      </c>
+      <c r="G30" t="n">
+        <v>106.075760738247</v>
+      </c>
+      <c r="H30" t="n">
+        <v>200.727955725376</v>
+      </c>
+      <c r="I30" t="n">
+        <v>106.120671298017</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D31" t="n">
+        <v>62.257322736</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.43002922732369</v>
+      </c>
+      <c r="F31" t="n">
+        <v>64.6497964070549</v>
+      </c>
+      <c r="G31" t="n">
+        <v>103.386894813323</v>
+      </c>
+      <c r="H31" t="n">
+        <v>126.907119143055</v>
+      </c>
+      <c r="I31" t="n">
+        <v>103.396784295896</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D32" t="n">
+        <v>36.563824464</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.839858435094868</v>
+      </c>
+      <c r="F32" t="n">
+        <v>57.6719900328214</v>
+      </c>
+      <c r="G32" t="n">
+        <v>92.2281012248889</v>
+      </c>
+      <c r="H32" t="n">
+        <v>94.2358144968214</v>
+      </c>
+      <c r="I32" t="n">
+        <v>92.2319251546847</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D33" t="n">
+        <v>26</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>26.719049500515</v>
+      </c>
+      <c r="G33" t="n">
+        <v>37.7696030025401</v>
+      </c>
+      <c r="H33" t="n">
+        <v>52.719049500515</v>
+      </c>
+      <c r="I33" t="n">
+        <v>37.7696030025401</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D34" t="n">
+        <v>23</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>10.1763700788947</v>
+      </c>
+      <c r="G34" t="n">
+        <v>14.9201001234778</v>
+      </c>
+      <c r="H34" t="n">
+        <v>33.1763700788947</v>
+      </c>
+      <c r="I34" t="n">
+        <v>14.9201001234778</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D35" t="n">
+        <v>26</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9.11524077297501</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12.8102816826077</v>
+      </c>
+      <c r="H35" t="n">
+        <v>35.115240772975</v>
+      </c>
+      <c r="I35" t="n">
+        <v>12.8102816826077</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4.8422597431368</v>
+      </c>
+      <c r="G36" t="n">
+        <v>6.94331639653848</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9.8422597431368</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6.94331639653848</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D37" t="n">
+        <v>21</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>8.2606869505086</v>
+      </c>
+      <c r="G37" t="n">
+        <v>11.4887689322311</v>
+      </c>
+      <c r="H37" t="n">
+        <v>29.2606869505086</v>
+      </c>
+      <c r="I37" t="n">
+        <v>11.4887689322311</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D38" t="n">
+        <v>24.4212963</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.256385939552075</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.51884057278333</v>
+      </c>
+      <c r="G38" t="n">
+        <v>11.8496964633912</v>
+      </c>
+      <c r="H38" t="n">
+        <v>26.9401368727833</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11.8524697858508</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D39" t="n">
+        <v>16.682926824</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.277177791318136</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4.16780655397927</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6.83548759330274</v>
+      </c>
+      <c r="H39" t="n">
+        <v>20.8507333779793</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6.84110503984522</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D40" t="n">
+        <v>25</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>14.8158733353308</v>
+      </c>
+      <c r="G40" t="n">
+        <v>81.6050679633485</v>
+      </c>
+      <c r="H40" t="n">
+        <v>39.8158733353308</v>
+      </c>
+      <c r="I40" t="n">
+        <v>81.6050679633485</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D41" t="n">
+        <v>50</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>12.0054700564715</v>
+      </c>
+      <c r="G41" t="n">
+        <v>22.467355785031</v>
+      </c>
+      <c r="H41" t="n">
+        <v>62.0054700564715</v>
+      </c>
+      <c r="I41" t="n">
+        <v>22.467355785031</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D42" t="n">
+        <v>74</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.4627825803839</v>
+      </c>
+      <c r="G42" t="n">
+        <v>10.3546488637953</v>
+      </c>
+      <c r="H42" t="n">
+        <v>78.4627825803839</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10.3546488637953</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D43" t="n">
+        <v>166</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>152.417467248908</v>
+      </c>
+      <c r="G43" t="n">
+        <v>306.532302984407</v>
+      </c>
+      <c r="H43" t="n">
+        <v>318.417467248908</v>
+      </c>
+      <c r="I43" t="n">
+        <v>306.532302984407</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D44" t="n">
+        <v>149.250965188</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.00616320743704</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10.2554222988312</v>
+      </c>
+      <c r="G44" t="n">
+        <v>19.2030249111107</v>
+      </c>
+      <c r="H44" t="n">
+        <v>159.506387486831</v>
+      </c>
+      <c r="I44" t="n">
+        <v>19.2293663477697</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D45" t="n">
+        <v>581.2818534</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8.31919403596286</v>
+      </c>
+      <c r="F45" t="n">
+        <v>109.145924321844</v>
+      </c>
+      <c r="G45" t="n">
+        <v>130.457772936828</v>
+      </c>
+      <c r="H45" t="n">
+        <v>690.427777721844</v>
+      </c>
+      <c r="I45" t="n">
+        <v>130.722758190932</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D46" t="n">
+        <v>791.541095890411</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46" t="n">
+        <v>216.638572119529</v>
+      </c>
+      <c r="G46" t="n">
+        <v>270.97438350585</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1008.17966800994</v>
+      </c>
+      <c r="I46" t="n">
+        <v>271.001780679194</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D47" t="n">
+        <v>362.676104127935</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8.32679727972764</v>
+      </c>
+      <c r="F47" t="n">
+        <v>165.80006256342</v>
+      </c>
+      <c r="G47" t="n">
+        <v>272.462474961775</v>
+      </c>
+      <c r="H47" t="n">
+        <v>528.476166691355</v>
+      </c>
+      <c r="I47" t="n">
+        <v>272.589683985351</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D48" t="n">
+        <v>570.201940277435</v>
+      </c>
+      <c r="E48" t="n">
+        <v>13.0914496741222</v>
+      </c>
+      <c r="F48" t="n">
+        <v>88.7829761096158</v>
+      </c>
+      <c r="G48" t="n">
+        <v>116.118037343235</v>
+      </c>
+      <c r="H48" t="n">
+        <v>658.984916387051</v>
+      </c>
+      <c r="I48" t="n">
+        <v>116.853689077474</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D49" t="n">
+        <v>809.350760983049</v>
+      </c>
+      <c r="E49" t="n">
+        <v>17.7745511919437</v>
+      </c>
+      <c r="F49" t="n">
+        <v>63.5772864145279</v>
+      </c>
+      <c r="G49" t="n">
+        <v>237.911947243354</v>
+      </c>
+      <c r="H49" t="n">
+        <v>872.928047397577</v>
+      </c>
+      <c r="I49" t="n">
+        <v>238.574997246567</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1360.29105583</v>
+      </c>
+      <c r="E50" t="n">
+        <v>177.280712025448</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3632.32634235352</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2093.76363433173</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4992.61739818352</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2101.25548358744</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1789.464951256</v>
+      </c>
+      <c r="E51" t="n">
+        <v>233.213046093052</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4106.79252427206</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2367.25779311307</v>
+      </c>
+      <c r="H51" t="n">
+        <v>5896.25747552806</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2378.71767637998</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1097.329015858</v>
+      </c>
+      <c r="E52" t="n">
+        <v>143.010033348189</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2901.08384001453</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1672.25719053486</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3998.41285587253</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1678.36109968439</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D53" t="n">
+        <v>933.597934366</v>
+      </c>
+      <c r="E53" t="n">
+        <v>121.671686247253</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2734.96638959453</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1576.50294272355</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3668.56432396053</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1581.19117365683</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1175.886857988</v>
+      </c>
+      <c r="E54" t="n">
+        <v>153.248129179445</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3324.52047834</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1916.33664574018</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4500.407336328</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1922.45445431191</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D55" t="n">
+        <v>929.463311096</v>
+      </c>
+      <c r="E55" t="n">
+        <v>121.13283909824</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2632.36443492336</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1517.36061319303</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3561.82774601936</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1522.18802885108</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1079.13667347</v>
+      </c>
+      <c r="E56" t="n">
+        <v>140.639105892529</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3287.06262187275</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1894.74500162586</v>
+      </c>
+      <c r="H56" t="n">
+        <v>4366.19929534275</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1899.95736249328</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1059.732193989</v>
+      </c>
+      <c r="E57" t="n">
+        <v>15.6864055884705</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2350.57792690704</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1142.73139904813</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3410.31012089604</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1142.83905852521</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D58" t="n">
+        <v>436.933333484</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.28328135895834</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1451.49517976918</v>
+      </c>
+      <c r="G58" t="n">
+        <v>698.632163210337</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1888.42851325318</v>
+      </c>
+      <c r="I58" t="n">
+        <v>698.645293386533</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D59" t="n">
+        <v>695.29296875</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7.2588109770127</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2294.66345943041</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1098.48359824299</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2989.95642818041</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1098.50758119626</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D60" t="n">
+        <v>267.87878775</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5.87362994646411</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1403.49757679075</v>
+      </c>
+      <c r="G60" t="n">
+        <v>670.513081794165</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1671.37636454075</v>
+      </c>
+      <c r="I60" t="n">
+        <v>670.538807516655</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D61" t="n">
+        <v>486.173126699</v>
+      </c>
+      <c r="E61" t="n">
+        <v>7.67978835072947</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1249.7332527863</v>
+      </c>
+      <c r="G61" t="n">
+        <v>594.694069471214</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1735.9063794853</v>
+      </c>
+      <c r="I61" t="n">
+        <v>594.743655210667</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D62" t="n">
+        <v>371.800000143</v>
+      </c>
+      <c r="E62" t="n">
+        <v>9.15030953919046</v>
+      </c>
+      <c r="F62" t="n">
+        <v>736.561933981246</v>
+      </c>
+      <c r="G62" t="n">
+        <v>401.060204846265</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1108.36193412425</v>
+      </c>
+      <c r="I62" t="n">
+        <v>401.164574801902</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D63" t="n">
+        <v>481.430769273</v>
+      </c>
+      <c r="E63" t="n">
+        <v>10.0200245864968</v>
+      </c>
+      <c r="F63" t="n">
+        <v>824.017687738067</v>
+      </c>
+      <c r="G63" t="n">
+        <v>638.974023390647</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1305.44845701107</v>
+      </c>
+      <c r="I63" t="n">
+        <v>639.052582704072</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D64" t="n">
+        <v>196.788643417</v>
+      </c>
+      <c r="E64" t="n">
+        <v>7.24171946964255</v>
+      </c>
+      <c r="F64" t="n">
+        <v>439.899151978342</v>
+      </c>
+      <c r="G64" t="n">
+        <v>263.512692340159</v>
+      </c>
+      <c r="H64" t="n">
+        <v>636.687795395342</v>
+      </c>
+      <c r="I64" t="n">
+        <v>263.612180153415</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D65" t="n">
+        <v>329.33333334</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10.0769234749501</v>
+      </c>
+      <c r="F65" t="n">
+        <v>466.461329130386</v>
+      </c>
+      <c r="G65" t="n">
+        <v>468.92522351911</v>
+      </c>
+      <c r="H65" t="n">
+        <v>795.794662470386</v>
+      </c>
+      <c r="I65" t="n">
+        <v>469.033484560716</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D66" t="n">
+        <v>352.251685248</v>
+      </c>
+      <c r="E66" t="n">
+        <v>6.40741962165738</v>
+      </c>
+      <c r="F66" t="n">
+        <v>401.977377029889</v>
+      </c>
+      <c r="G66" t="n">
+        <v>281.507663802649</v>
+      </c>
+      <c r="H66" t="n">
+        <v>754.229062277889</v>
+      </c>
+      <c r="I66" t="n">
+        <v>281.580574269308</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D67" t="n">
+        <v>371.613168722</v>
+      </c>
+      <c r="E67" t="n">
+        <v>11.8214695166041</v>
+      </c>
+      <c r="F67" t="n">
+        <v>586.993217325319</v>
+      </c>
+      <c r="G67" t="n">
+        <v>451.374674603058</v>
+      </c>
+      <c r="H67" t="n">
+        <v>958.606386047319</v>
+      </c>
+      <c r="I67" t="n">
+        <v>451.529449775481</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D68" t="n">
+        <v>545.935943296</v>
+      </c>
+      <c r="E68" t="n">
+        <v>20.0443903725706</v>
+      </c>
+      <c r="F68" t="n">
+        <v>829.902603571351</v>
+      </c>
+      <c r="G68" t="n">
+        <v>544.739705097121</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1375.83854686735</v>
+      </c>
+      <c r="I68" t="n">
+        <v>545.108359773272</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1744.534091865</v>
+      </c>
+      <c r="E69" t="n">
+        <v>34.4475636787132</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2691.27494839714</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2185.34851366972</v>
+      </c>
+      <c r="H69" t="n">
+        <v>4435.80904026214</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2185.61999461065</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1476.20652173913</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70" t="n">
+        <v>3345.53534941266</v>
+      </c>
+      <c r="G70" t="n">
+        <v>2385.13677797579</v>
+      </c>
+      <c r="H70" t="n">
+        <v>4821.74187115179</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2385.7839050121</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D71" t="n">
+        <v>546.232810284425</v>
+      </c>
+      <c r="E71" t="n">
+        <v>83.7866291562798</v>
+      </c>
+      <c r="F71" t="n">
+        <v>386.116958142706</v>
+      </c>
+      <c r="G71" t="n">
+        <v>318.717809619524</v>
+      </c>
+      <c r="H71" t="n">
+        <v>932.349768427131</v>
+      </c>
+      <c r="I71" t="n">
+        <v>329.547024556495</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1385.64604947713</v>
+      </c>
+      <c r="E72" t="n">
+        <v>212.544192702287</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1355.08489619723</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1056.08541828237</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2740.73094567436</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1077.2610846773</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2067.8228575235</v>
+      </c>
+      <c r="E73" t="n">
+        <v>306.769849936414</v>
+      </c>
+      <c r="F73" t="n">
+        <v>3948.65879948157</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3890.59499715179</v>
+      </c>
+      <c r="H73" t="n">
+        <v>6016.48165700507</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3902.67051808022</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D74" t="n">
+        <v>216.056325816</v>
+      </c>
+      <c r="E74" t="n">
+        <v>13.1301182782182</v>
+      </c>
+      <c r="F74" t="n">
+        <v>237.295846030958</v>
+      </c>
+      <c r="G74" t="n">
+        <v>220.70573459056</v>
+      </c>
+      <c r="H74" t="n">
+        <v>453.352171846958</v>
+      </c>
+      <c r="I74" t="n">
+        <v>221.095954931696</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D75" t="n">
+        <v>424.788708384</v>
+      </c>
+      <c r="E75" t="n">
+        <v>25.8151478012426</v>
+      </c>
+      <c r="F75" t="n">
+        <v>438.181218332297</v>
+      </c>
+      <c r="G75" t="n">
+        <v>407.546568106377</v>
+      </c>
+      <c r="H75" t="n">
+        <v>862.969926716298</v>
+      </c>
+      <c r="I75" t="n">
+        <v>408.363351724033</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D76" t="n">
+        <v>338.73237522</v>
+      </c>
+      <c r="E76" t="n">
+        <v>20.585354927715</v>
+      </c>
+      <c r="F76" t="n">
+        <v>347.782800796695</v>
+      </c>
+      <c r="G76" t="n">
+        <v>323.468193024259</v>
+      </c>
+      <c r="H76" t="n">
+        <v>686.515176016695</v>
+      </c>
+      <c r="I76" t="n">
+        <v>324.122552032221</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D77" t="n">
+        <v>347.88730428</v>
+      </c>
+      <c r="E77" t="n">
+        <v>21.1417158717073</v>
+      </c>
+      <c r="F77" t="n">
+        <v>456.595710793254</v>
+      </c>
+      <c r="G77" t="n">
+        <v>424.673644511994</v>
+      </c>
+      <c r="H77" t="n">
+        <v>804.483015073254</v>
+      </c>
+      <c r="I77" t="n">
+        <v>425.199572545763</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D78" t="n">
+        <v>368.028148212</v>
+      </c>
+      <c r="E78" t="n">
+        <v>22.3657099484903</v>
+      </c>
+      <c r="F78" t="n">
+        <v>423.742582198139</v>
+      </c>
+      <c r="G78" t="n">
+        <v>394.117383197428</v>
+      </c>
+      <c r="H78" t="n">
+        <v>791.770730410139</v>
+      </c>
+      <c r="I78" t="n">
+        <v>394.751487292814</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D79" t="n">
+        <v>391.830963768</v>
+      </c>
+      <c r="E79" t="n">
+        <v>23.8122484028703</v>
+      </c>
+      <c r="F79" t="n">
+        <v>493.006184522871</v>
+      </c>
+      <c r="G79" t="n">
+        <v>458.538545586736</v>
+      </c>
+      <c r="H79" t="n">
+        <v>884.837148290871</v>
+      </c>
+      <c r="I79" t="n">
+        <v>459.156423196713</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D80" t="n">
+        <v>433.943637444</v>
+      </c>
+      <c r="E80" t="n">
+        <v>26.3715087452349</v>
+      </c>
+      <c r="F80" t="n">
+        <v>523.557501560367</v>
+      </c>
+      <c r="G80" t="n">
+        <v>486.9539223506</v>
+      </c>
+      <c r="H80" t="n">
+        <v>957.501139004367</v>
+      </c>
+      <c r="I80" t="n">
+        <v>487.667488116784</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D81" t="n">
+        <v>180.821428554</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.970072626147135</v>
+      </c>
+      <c r="F81" t="n">
+        <v>568.533194614067</v>
+      </c>
+      <c r="G81" t="n">
+        <v>427.880152789116</v>
+      </c>
+      <c r="H81" t="n">
+        <v>749.354623168068</v>
+      </c>
+      <c r="I81" t="n">
+        <v>427.88125244247</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D82" t="n">
+        <v>176.667752436</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.820281049397095</v>
+      </c>
+      <c r="F82" t="n">
+        <v>408.347923539593</v>
+      </c>
+      <c r="G82" t="n">
+        <v>306.206665898554</v>
+      </c>
+      <c r="H82" t="n">
+        <v>585.015675975593</v>
+      </c>
+      <c r="I82" t="n">
+        <v>306.20776460062</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D83" t="n">
+        <v>106.933832752</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.900461825953771</v>
+      </c>
+      <c r="F83" t="n">
+        <v>101.785754329638</v>
+      </c>
+      <c r="G83" t="n">
+        <v>78.0572102372824</v>
+      </c>
+      <c r="H83" t="n">
+        <v>208.719587081638</v>
+      </c>
+      <c r="I83" t="n">
+        <v>78.0624038928299</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D84" t="n">
+        <v>44.658892126</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.418574724511646</v>
+      </c>
+      <c r="F84" t="n">
+        <v>116.125429610605</v>
+      </c>
+      <c r="G84" t="n">
+        <v>87.8605506867027</v>
+      </c>
+      <c r="H84" t="n">
+        <v>160.784321736605</v>
+      </c>
+      <c r="I84" t="n">
+        <v>87.8615477428588</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D85" t="n">
+        <v>198.90566031</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.04251315785236</v>
+      </c>
+      <c r="F85" t="n">
+        <v>160.453581450704</v>
+      </c>
+      <c r="G85" t="n">
+        <v>120.148159378998</v>
+      </c>
+      <c r="H85" t="n">
+        <v>359.359241760704</v>
+      </c>
+      <c r="I85" t="n">
+        <v>120.165519439485</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D86" t="n">
+        <v>177.082014336</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1.95102611771345</v>
+      </c>
+      <c r="F86" t="n">
+        <v>120.901526169238</v>
+      </c>
+      <c r="G86" t="n">
+        <v>139.968045502867</v>
+      </c>
+      <c r="H86" t="n">
+        <v>297.983540505238</v>
+      </c>
+      <c r="I86" t="n">
+        <v>139.981642599323</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D87" t="n">
+        <v>272.118733518</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.27741664974107</v>
+      </c>
+      <c r="F87" t="n">
+        <v>51.2818567206332</v>
+      </c>
+      <c r="G87" t="n">
+        <v>57.9190009024216</v>
+      </c>
+      <c r="H87" t="n">
+        <v>323.400590238633</v>
+      </c>
+      <c r="I87" t="n">
+        <v>58.0116550826703</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D88" t="n">
+        <v>235.255720048</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3.3664483471457</v>
+      </c>
+      <c r="F88" t="n">
+        <v>102.675566519512</v>
+      </c>
+      <c r="G88" t="n">
+        <v>137.834743804599</v>
+      </c>
+      <c r="H88" t="n">
+        <v>337.931286567512</v>
+      </c>
+      <c r="I88" t="n">
+        <v>137.875848407738</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D89" t="n">
+        <v>166.25</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.19034650226853</v>
+      </c>
+      <c r="F89" t="n">
+        <v>73.4807734324871</v>
+      </c>
+      <c r="G89" t="n">
+        <v>117.621297969957</v>
+      </c>
+      <c r="H89" t="n">
+        <v>239.730773432487</v>
+      </c>
+      <c r="I89" t="n">
+        <v>117.641690543521</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D90" t="n">
+        <v>172.559959435</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1.79885093879398</v>
+      </c>
+      <c r="F90" t="n">
+        <v>90.1890616224978</v>
+      </c>
+      <c r="G90" t="n">
+        <v>142.066806598232</v>
+      </c>
+      <c r="H90" t="n">
+        <v>262.749021057498</v>
+      </c>
+      <c r="I90" t="n">
+        <v>142.078194673635</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D91" t="n">
+        <v>283.796791315</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.83830319028817</v>
+      </c>
+      <c r="F91" t="n">
+        <v>79.4431424659326</v>
+      </c>
+      <c r="G91" t="n">
+        <v>93.9645289045339</v>
+      </c>
+      <c r="H91" t="n">
+        <v>363.239933780933</v>
+      </c>
+      <c r="I91" t="n">
+        <v>94.0073861845493</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D92" t="n">
+        <v>422.30769246</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5.16361013245578</v>
+      </c>
+      <c r="F92" t="n">
+        <v>62.1204126857397</v>
+      </c>
+      <c r="G92" t="n">
+        <v>90.7543686616246</v>
+      </c>
+      <c r="H92" t="n">
+        <v>484.42810514574</v>
+      </c>
+      <c r="I92" t="n">
+        <v>90.9011457615913</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1294.838028872</v>
+      </c>
+      <c r="E93" t="n">
+        <v>19.8857926413809</v>
+      </c>
+      <c r="F93" t="n">
+        <v>405.057130503785</v>
+      </c>
+      <c r="G93" t="n">
+        <v>516.588342638887</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1699.89515937579</v>
+      </c>
+      <c r="I93" t="n">
+        <v>516.970947442279</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1633.22203672788</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94" t="n">
+        <v>169.239325439541</v>
+      </c>
+      <c r="G94" t="n">
+        <v>186.931720973287</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1802.46136216742</v>
+      </c>
+      <c r="I94" t="n">
+        <v>190.841318689288</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D95" t="n">
+        <v>680.671872525995</v>
+      </c>
+      <c r="E95" t="n">
+        <v>45.2921033001049</v>
+      </c>
+      <c r="F95" t="n">
+        <v>271.315123394045</v>
+      </c>
+      <c r="G95" t="n">
+        <v>308.406473811394</v>
+      </c>
+      <c r="H95" t="n">
+        <v>951.98699592004</v>
+      </c>
+      <c r="I95" t="n">
+        <v>311.714497112542</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1169.47650581647</v>
+      </c>
+      <c r="E96" t="n">
+        <v>77.817304998838</v>
+      </c>
+      <c r="F96" t="n">
+        <v>795.792615232198</v>
+      </c>
+      <c r="G96" t="n">
+        <v>769.844141342828</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1965.26912104867</v>
+      </c>
+      <c r="I96" t="n">
+        <v>773.767106380957</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2164.44518928065</v>
+      </c>
+      <c r="E97" t="n">
+        <v>138.109809111195</v>
+      </c>
+      <c r="F97" t="n">
+        <v>537.722249935495</v>
+      </c>
+      <c r="G97" t="n">
+        <v>784.00794558497</v>
+      </c>
+      <c r="H97" t="n">
+        <v>2702.16743921614</v>
+      </c>
+      <c r="I97" t="n">
+        <v>796.079630510099</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2066.847131107</v>
+      </c>
+      <c r="E98" t="n">
+        <v>81.7694492847971</v>
+      </c>
+      <c r="F98" t="n">
+        <v>8578.00758403104</v>
+      </c>
+      <c r="G98" t="n">
+        <v>3927.64313130826</v>
+      </c>
+      <c r="H98" t="n">
+        <v>10644.854715138</v>
+      </c>
+      <c r="I98" t="n">
+        <v>3928.49421658595</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3646.987769186</v>
+      </c>
+      <c r="E99" t="n">
+        <v>144.283617760839</v>
+      </c>
+      <c r="F99" t="n">
+        <v>12318.330270335</v>
+      </c>
+      <c r="G99" t="n">
+        <v>5640.2381090845</v>
+      </c>
+      <c r="H99" t="n">
+        <v>15965.318039521</v>
+      </c>
+      <c r="I99" t="n">
+        <v>5642.08327566363</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3108.134151905</v>
+      </c>
+      <c r="E100" t="n">
+        <v>122.965271151147</v>
+      </c>
+      <c r="F100" t="n">
+        <v>10252.928854098</v>
+      </c>
+      <c r="G100" t="n">
+        <v>4694.54534693548</v>
+      </c>
+      <c r="H100" t="n">
+        <v>13361.063006003</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4696.15549916555</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2916.928029644</v>
+      </c>
+      <c r="E101" t="n">
+        <v>115.400696547707</v>
+      </c>
+      <c r="F101" t="n">
+        <v>10461.3523404781</v>
+      </c>
+      <c r="G101" t="n">
+        <v>4789.97695697605</v>
+      </c>
+      <c r="H101" t="n">
+        <v>13378.2803701221</v>
+      </c>
+      <c r="I101" t="n">
+        <v>4791.36687899447</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2860.642244736</v>
+      </c>
+      <c r="E102" t="n">
+        <v>113.173895365742</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10142.4392950531</v>
+      </c>
+      <c r="G102" t="n">
+        <v>4643.95509582964</v>
+      </c>
+      <c r="H102" t="n">
+        <v>13003.0815397891</v>
+      </c>
+      <c r="I102" t="n">
+        <v>4645.3339236996</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2351.586984171</v>
+      </c>
+      <c r="E103" t="n">
+        <v>93.0344434994427</v>
+      </c>
+      <c r="F103" t="n">
+        <v>7535.89015213031</v>
+      </c>
+      <c r="G103" t="n">
+        <v>3450.48508110541</v>
+      </c>
+      <c r="H103" t="n">
+        <v>9887.47713630131</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3451.73908379649</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3868.819980294</v>
+      </c>
+      <c r="E104" t="n">
+        <v>153.059834183877</v>
+      </c>
+      <c r="F104" t="n">
+        <v>11803.5493702394</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5404.53353006864</v>
+      </c>
+      <c r="H104" t="n">
+        <v>15672.3693505334</v>
+      </c>
+      <c r="I104" t="n">
+        <v>5406.70047168109</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2482.244408405</v>
+      </c>
+      <c r="E105" t="n">
+        <v>48.6016995836874</v>
+      </c>
+      <c r="F105" t="n">
+        <v>8815.32787189081</v>
+      </c>
+      <c r="G105" t="n">
+        <v>3995.3415006537</v>
+      </c>
+      <c r="H105" t="n">
+        <v>11297.5722802958</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3995.63709964358</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1522.538367084</v>
+      </c>
+      <c r="E106" t="n">
+        <v>27.5729635978435</v>
+      </c>
+      <c r="F106" t="n">
+        <v>5272.15149604373</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2388.93791129805</v>
+      </c>
+      <c r="H106" t="n">
+        <v>6794.68986312773</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2389.09702866138</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1155.19097193</v>
+      </c>
+      <c r="E107" t="n">
+        <v>17.918147730025</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3978.67424208435</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1803.5296475603</v>
+      </c>
+      <c r="H107" t="n">
+        <v>5133.86521401435</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1803.61865416364</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D108" t="n">
+        <v>643.567715208</v>
+      </c>
+      <c r="E108" t="n">
+        <v>8.52479822212819</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2056.19186024795</v>
+      </c>
+      <c r="G108" t="n">
+        <v>932.206049321336</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2699.75957545595</v>
+      </c>
+      <c r="I108" t="n">
+        <v>932.245027112518</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1521.102881184</v>
+      </c>
+      <c r="E109" t="n">
+        <v>25.8938294187631</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4141.80372330539</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1877.13089010514</v>
+      </c>
+      <c r="H109" t="n">
+        <v>5662.90660448939</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1877.30947608243</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D110" t="n">
+        <v>466.387559718</v>
+      </c>
+      <c r="E110" t="n">
+        <v>7.11417879083735</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2178.1328693007</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1136.62172760999</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2644.5204290187</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1136.64399141288</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1038.848938619</v>
+      </c>
+      <c r="E111" t="n">
+        <v>15.0381671942428</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2367.18427495678</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1346.73001140981</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3406.03321357578</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1346.81397011779</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1209.924444228</v>
+      </c>
+      <c r="E112" t="n">
+        <v>21.2300443182533</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5500.67438057237</v>
+      </c>
+      <c r="G112" t="n">
+        <v>3656.75750248793</v>
+      </c>
+      <c r="H112" t="n">
+        <v>6710.59882480037</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3656.81912962393</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1184.104004952</v>
+      </c>
+      <c r="E113" t="n">
+        <v>16.6743853017735</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3160.75775930272</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1423.24161154907</v>
+      </c>
+      <c r="H113" t="n">
+        <v>4344.86176425472</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1423.33928491066</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1553.560940759</v>
+      </c>
+      <c r="E114" t="n">
+        <v>14.9069835479885</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2550.13556325026</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1150.2389581481</v>
+      </c>
+      <c r="H114" t="n">
+        <v>4103.69650400926</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1150.33555061127</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1412.1641097</v>
+      </c>
+      <c r="E115" t="n">
+        <v>15.2240842089106</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3251.19007150415</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1784.82191582623</v>
+      </c>
+      <c r="H115" t="n">
+        <v>4663.35418120415</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1784.88684345917</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3528.82758657</v>
+      </c>
+      <c r="E116" t="n">
+        <v>41.0586843432665</v>
+      </c>
+      <c r="F116" t="n">
+        <v>6871.78129625863</v>
+      </c>
+      <c r="G116" t="n">
+        <v>3028.77900656272</v>
+      </c>
+      <c r="H116" t="n">
+        <v>10400.6088828286</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3029.05729331009</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D117" t="n">
+        <v>8511.14503756</v>
+      </c>
+      <c r="E117" t="n">
+        <v>153.286959404412</v>
+      </c>
+      <c r="F117" t="n">
+        <v>7888.48692126823</v>
+      </c>
+      <c r="G117" t="n">
+        <v>3039.78223319658</v>
+      </c>
+      <c r="H117" t="n">
+        <v>16399.6319588282</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3043.64467656477</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6635.30386740332</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118" t="n">
+        <v>18893.2389014068</v>
+      </c>
+      <c r="G118" t="n">
+        <v>8802.53901861846</v>
+      </c>
+      <c r="H118" t="n">
+        <v>25528.5427688102</v>
+      </c>
+      <c r="I118" t="n">
+        <v>8803.94281845434</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1779.62597852802</v>
+      </c>
+      <c r="E119" t="n">
+        <v>70.3688891904742</v>
+      </c>
+      <c r="F119" t="n">
+        <v>9557.87626366606</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4222.83041306574</v>
+      </c>
+      <c r="H119" t="n">
+        <v>11337.5022421941</v>
+      </c>
+      <c r="I119" t="n">
+        <v>4223.41668298061</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3751.37537586409</v>
+      </c>
+      <c r="E120" t="n">
+        <v>148.334605878477</v>
+      </c>
+      <c r="F120" t="n">
+        <v>9145.53873139093</v>
+      </c>
+      <c r="G120" t="n">
+        <v>3854.52493161257</v>
+      </c>
+      <c r="H120" t="n">
+        <v>12896.914107255</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3857.37807373403</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D121" t="n">
+        <v>6076.73123798912</v>
+      </c>
+      <c r="E121" t="n">
+        <v>228.387831137087</v>
+      </c>
+      <c r="F121" t="n">
+        <v>13556.111626549</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5311.82572385114</v>
+      </c>
+      <c r="H121" t="n">
+        <v>19632.8428645381</v>
+      </c>
+      <c r="I121" t="n">
+        <v>5316.73335065604</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1999</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1075.819975252</v>
+      </c>
+      <c r="E122" t="n">
+        <v>34.4627220777175</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1326.31694655409</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1015.41851533343</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2402.13692180609</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1016.00316952997</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1547.140578984</v>
+      </c>
+      <c r="E123" t="n">
+        <v>49.5609646736623</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1444.65726894287</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1106.01899719887</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2991.79784792687</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1107.12885943064</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1190.10813768</v>
+      </c>
+      <c r="E124" t="n">
+        <v>38.1238189797402</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1059.24288564388</v>
+      </c>
+      <c r="G124" t="n">
+        <v>810.948575385743</v>
+      </c>
+      <c r="H124" t="n">
+        <v>2249.35102332388</v>
+      </c>
+      <c r="I124" t="n">
+        <v>811.844207649329</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1684.097467844</v>
+      </c>
+      <c r="E125" t="n">
+        <v>53.9482295562514</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1741.47807755737</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1333.26282876301</v>
+      </c>
+      <c r="H125" t="n">
+        <v>3425.57554540137</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1334.35384438813</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2003</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1621.758470156</v>
+      </c>
+      <c r="E126" t="n">
+        <v>51.9512676096936</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1479.90069828817</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1133.00110791836</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3101.65916844417</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1134.19153794696</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1500.858595852</v>
+      </c>
+      <c r="E127" t="n">
+        <v>48.078371713339</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1579.81097046886</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1209.49167867361</v>
+      </c>
+      <c r="H127" t="n">
+        <v>3080.66956632086</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1210.44688053929</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2005</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1935.342519132</v>
+      </c>
+      <c r="E128" t="n">
+        <v>61.9965913408632</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2230.68274360718</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1707.79432893353</v>
+      </c>
+      <c r="H128" t="n">
+        <v>4166.02526273918</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1708.9192629482</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D129" t="n">
+        <v>710.198630046</v>
+      </c>
+      <c r="E129" t="n">
+        <v>8.23715122065875</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1130.94199123108</v>
+      </c>
+      <c r="G129" t="n">
+        <v>828.648536785123</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1841.14062127708</v>
+      </c>
+      <c r="I129" t="n">
+        <v>828.689476327749</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2007</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1061.214511324</v>
+      </c>
+      <c r="E130" t="n">
+        <v>7.41179953857361</v>
+      </c>
+      <c r="F130" t="n">
+        <v>828.144715306942</v>
+      </c>
+      <c r="G130" t="n">
+        <v>605.08227312533</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1889.35922663094</v>
+      </c>
+      <c r="I130" t="n">
+        <v>605.127665887882</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2008</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1378.9215684</v>
+      </c>
+      <c r="E131" t="n">
+        <v>10.3347472150992</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1033.22513224458</v>
+      </c>
+      <c r="G131" t="n">
+        <v>753.919578781817</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2412.14670064458</v>
+      </c>
+      <c r="I131" t="n">
+        <v>753.990409932747</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2009</v>
+      </c>
+      <c r="D132" t="n">
+        <v>637.72661892</v>
+      </c>
+      <c r="E132" t="n">
+        <v>5.49557785860595</v>
+      </c>
+      <c r="F132" t="n">
+        <v>379.0231358101</v>
+      </c>
+      <c r="G132" t="n">
+        <v>276.266659301752</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1016.7497547301</v>
+      </c>
+      <c r="I132" t="n">
+        <v>276.321313723264</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D133" t="n">
+        <v>746.358974084</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.57039534395002</v>
+      </c>
+      <c r="F133" t="n">
+        <v>491.380280113446</v>
+      </c>
+      <c r="G133" t="n">
+        <v>357.400520382363</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1237.73925419745</v>
+      </c>
+      <c r="I133" t="n">
+        <v>357.429742023777</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2011</v>
+      </c>
+      <c r="D134" t="n">
+        <v>302.523517391</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3.56285252122509</v>
+      </c>
+      <c r="F134" t="n">
+        <v>504.140928746821</v>
+      </c>
+      <c r="G134" t="n">
+        <v>463.696089177851</v>
+      </c>
+      <c r="H134" t="n">
+        <v>806.664446137821</v>
+      </c>
+      <c r="I134" t="n">
+        <v>463.709776732087</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D135" t="n">
+        <v>232.26771652</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.15961628536182</v>
+      </c>
+      <c r="F135" t="n">
+        <v>143.574023811102</v>
+      </c>
+      <c r="G135" t="n">
+        <v>129.037391157586</v>
+      </c>
+      <c r="H135" t="n">
+        <v>375.841740331102</v>
+      </c>
+      <c r="I135" t="n">
+        <v>129.055461950496</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2013</v>
+      </c>
+      <c r="D136" t="n">
+        <v>308.833333188</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.79388922471883</v>
+      </c>
+      <c r="F136" t="n">
+        <v>430.980434188582</v>
+      </c>
+      <c r="G136" t="n">
+        <v>267.132619755132</v>
+      </c>
+      <c r="H136" t="n">
+        <v>739.813767376582</v>
+      </c>
+      <c r="I136" t="n">
+        <v>267.147229733419</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D137" t="n">
+        <v>437.753183139</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.87583386168256</v>
+      </c>
+      <c r="F137" t="n">
+        <v>396.218254274986</v>
+      </c>
+      <c r="G137" t="n">
+        <v>364.78100626508</v>
+      </c>
+      <c r="H137" t="n">
+        <v>833.971437413986</v>
+      </c>
+      <c r="I137" t="n">
+        <v>364.792342233447</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D138" t="n">
+        <v>394.240266079</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.35308331769192</v>
+      </c>
+      <c r="F138" t="n">
+        <v>736.578480644138</v>
+      </c>
+      <c r="G138" t="n">
+        <v>659.563597562015</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1130.81874672314</v>
+      </c>
+      <c r="I138" t="n">
+        <v>659.567795021897</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D139" t="n">
+        <v>605.403785196</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.62558324971025</v>
+      </c>
+      <c r="F139" t="n">
+        <v>243.033969553485</v>
+      </c>
+      <c r="G139" t="n">
+        <v>334.063266700567</v>
+      </c>
+      <c r="H139" t="n">
+        <v>848.437754749485</v>
+      </c>
+      <c r="I139" t="n">
+        <v>334.09528907043</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D140" t="n">
+        <v>901.192028752</v>
+      </c>
+      <c r="E140" t="n">
+        <v>10.7378030083905</v>
+      </c>
+      <c r="F140" t="n">
+        <v>290.936355419613</v>
+      </c>
+      <c r="G140" t="n">
+        <v>419.259112673521</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1192.12838417161</v>
+      </c>
+      <c r="I140" t="n">
+        <v>419.396595090179</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1255.543175046</v>
+      </c>
+      <c r="E141" t="n">
+        <v>18.6418450825019</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1130.90941928328</v>
+      </c>
+      <c r="G141" t="n">
+        <v>885.494793195898</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2386.45259432928</v>
+      </c>
+      <c r="I141" t="n">
+        <v>885.690999821679</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>15</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D142" t="n">
+        <v>890.691318327974</v>
+      </c>
+      <c r="E142"/>
+      <c r="F142" t="n">
+        <v>334.70328772718</v>
+      </c>
+      <c r="G142" t="n">
+        <v>275.547024694005</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1225.39460605515</v>
+      </c>
+      <c r="I142" t="n">
+        <v>275.67272491333</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D143" t="n">
+        <v>646.058703400213</v>
+      </c>
+      <c r="E143" t="n">
+        <v>20.7198386490921</v>
+      </c>
+      <c r="F143" t="n">
+        <v>607.328274428105</v>
+      </c>
+      <c r="G143" t="n">
+        <v>573.501059972453</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1253.38697782832</v>
+      </c>
+      <c r="I143" t="n">
+        <v>573.875228166517</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1140.99256389979</v>
+      </c>
+      <c r="E144" t="n">
+        <v>36.5929314153556</v>
+      </c>
+      <c r="F144" t="n">
+        <v>486.358168047974</v>
+      </c>
+      <c r="G144" t="n">
+        <v>480.132448757362</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1627.35073194777</v>
+      </c>
+      <c r="I144" t="n">
+        <v>481.524880955606</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1067.31920298573</v>
+      </c>
+      <c r="E145" t="n">
+        <v>32.4764193443842</v>
+      </c>
+      <c r="F145" t="n">
+        <v>342.317561623989</v>
+      </c>
+      <c r="G145" t="n">
+        <v>339.683180551829</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1409.63676460972</v>
+      </c>
+      <c r="I145" t="n">
+        <v>341.232151127702</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>